--- a/MPP Chinese translation updated (version 1).xlsx
+++ b/MPP Chinese translation updated (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kailee\Documents\GitHub\mannerpathChinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE990B4A-347E-4703-BDBD-D00BD06406EC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99FF696-8420-4578-B782-F5E3DAD9A8AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4168" uniqueCount="1680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4265" uniqueCount="1735">
   <si>
     <t>List</t>
   </si>
@@ -9052,18 +9052,6 @@
     <t>哪个视频展示了kuo2？</t>
   </si>
   <si>
-    <t>na3 yi1 ge4 shi4 jiong3?</t>
-  </si>
-  <si>
-    <t>na3 yi3 ge4 shi4 jiong3?</t>
-  </si>
-  <si>
-    <t>na3 yi1 ge4 shi4 lia3?</t>
-  </si>
-  <si>
-    <t>na3 yi3 ge4 shi4 lia3?</t>
-  </si>
-  <si>
     <t>看，jiong3</t>
   </si>
   <si>
@@ -9094,9 +9082,6 @@
     <t>Chinese (which one is)</t>
   </si>
   <si>
-    <t xml:space="preserve">Chinese (which one shows) </t>
-  </si>
-  <si>
     <t>哪个视频展示了jiong3？</t>
   </si>
   <si>
@@ -9344,6 +9329,186 @@
   </si>
   <si>
     <t>Look, wugging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese (which video shows) </t>
+  </si>
+  <si>
+    <t>哪一个是teng2?</t>
+  </si>
+  <si>
+    <t>哪一个是jin3?</t>
+  </si>
+  <si>
+    <t>哪一个是feng1?</t>
+  </si>
+  <si>
+    <t>哪一个是zong1?</t>
+  </si>
+  <si>
+    <t>哪一个是jue4?</t>
+  </si>
+  <si>
+    <t>哪一个是wei1?</t>
+  </si>
+  <si>
+    <t>哪一个是heng2?</t>
+  </si>
+  <si>
+    <t>哪一个是yu4?</t>
+  </si>
+  <si>
+    <t>哪个视频展示了yu4？</t>
+  </si>
+  <si>
+    <t>哪个视频展示了heng2？</t>
+  </si>
+  <si>
+    <t>哪个视频展示了wei1？</t>
+  </si>
+  <si>
+    <t>哪个视频展示了jue4？</t>
+  </si>
+  <si>
+    <t>哪个视频展示了zong1？</t>
+  </si>
+  <si>
+    <t>哪个视频展示了feng1？</t>
+  </si>
+  <si>
+    <t>哪个视频展示了jin3？</t>
+  </si>
+  <si>
+    <t>哪个视频展示了teng2？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">which video shows </t>
+  </si>
+  <si>
+    <t>Which video shows krading?</t>
+  </si>
+  <si>
+    <t>Which video shows rolting?</t>
+  </si>
+  <si>
+    <t>Which video shows wugging?</t>
+  </si>
+  <si>
+    <t>Which video shows klebbing?</t>
+  </si>
+  <si>
+    <t>Which video shows  gorping?</t>
+  </si>
+  <si>
+    <t>Which video shows  nibbing?</t>
+  </si>
+  <si>
+    <t>Which video shows  zicking?</t>
+  </si>
+  <si>
+    <t>Which video shows  gossing?</t>
+  </si>
+  <si>
+    <t>Which video shows blicking?</t>
+  </si>
+  <si>
+    <t>Which video shows glipping?</t>
+  </si>
+  <si>
+    <t>Which video shows zarking?</t>
+  </si>
+  <si>
+    <t>Which video shows molking?</t>
+  </si>
+  <si>
+    <t>Which video shows torging?</t>
+  </si>
+  <si>
+    <t>Which video shows pimming?</t>
+  </si>
+  <si>
+    <t>Which video shows birking?</t>
+  </si>
+  <si>
+    <t>Which video shows dacking?</t>
+  </si>
+  <si>
+    <t>让我们找找teng2在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找jin3在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找feng1在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找zong1在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找jue4在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找wei1在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找heng2在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找yu4在哪里</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese (record it as "let's find which one is" </t>
+  </si>
+  <si>
+    <t>Let's find which video is krading</t>
+  </si>
+  <si>
+    <t>Let's find which video is glipping</t>
+  </si>
+  <si>
+    <t>Let's find which video is zarking</t>
+  </si>
+  <si>
+    <t>Let's find which video is molking</t>
+  </si>
+  <si>
+    <t>Let's find which video is torging</t>
+  </si>
+  <si>
+    <t>Let's find which video is pimming</t>
+  </si>
+  <si>
+    <t>Let's find which video is birking</t>
+  </si>
+  <si>
+    <t>Let's find which video is dacking</t>
+  </si>
+  <si>
+    <t>Let's find which video is blicking</t>
+  </si>
+  <si>
+    <t>Let's find which video is gossing</t>
+  </si>
+  <si>
+    <t>Let's find which video is zicking</t>
+  </si>
+  <si>
+    <t>Let's find which video is nibbing</t>
+  </si>
+  <si>
+    <t>Let's find which video is gorping</t>
+  </si>
+  <si>
+    <t>Let's find which video is klebbing</t>
+  </si>
+  <si>
+    <t>Let's find which video is wugging</t>
+  </si>
+  <si>
+    <t>Let's find which video is rolting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternative way (recorded) </t>
   </si>
 </sst>
 </file>
@@ -9423,7 +9588,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9481,6 +9646,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9545,7 +9716,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -9593,6 +9764,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9981,10 +10156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6DFD1F-345F-4526-807E-6A916CCFBA00}">
-  <dimension ref="A1:CC51"/>
+  <dimension ref="A1:CD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N20" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="BY1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="BZ3" sqref="BZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -9993,9 +10168,10 @@
     <col min="10" max="10" width="24.1640625" customWidth="1"/>
     <col min="11" max="11" width="46.5" customWidth="1"/>
     <col min="12" max="12" width="42.1640625" customWidth="1"/>
-    <col min="13" max="14" width="41.6640625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="41.6640625" style="25" customWidth="1"/>
+    <col min="14" max="14" width="41.6640625" style="22" customWidth="1"/>
     <col min="15" max="15" width="30.1640625" style="18" customWidth="1"/>
-    <col min="16" max="16" width="27.58203125" customWidth="1"/>
+    <col min="16" max="16" width="27.58203125" style="25" customWidth="1"/>
     <col min="17" max="17" width="12.83203125" customWidth="1"/>
     <col min="18" max="18" width="12.5" customWidth="1"/>
     <col min="19" max="19" width="47.6640625" customWidth="1"/>
@@ -10004,7 +10180,9 @@
     <col min="23" max="23" width="43.33203125" customWidth="1"/>
     <col min="24" max="24" width="44.5" customWidth="1"/>
     <col min="26" max="26" width="31.1640625" customWidth="1"/>
-    <col min="27" max="29" width="31.1640625" style="18" customWidth="1"/>
+    <col min="27" max="27" width="31.1640625" style="18" customWidth="1"/>
+    <col min="28" max="28" width="31.1640625" customWidth="1"/>
+    <col min="29" max="29" width="31.1640625" style="18" customWidth="1"/>
     <col min="30" max="30" width="30.5" customWidth="1"/>
     <col min="31" max="31" width="32" customWidth="1"/>
     <col min="35" max="35" width="50.33203125" customWidth="1"/>
@@ -10036,13 +10214,13 @@
     <col min="62" max="62" width="41.33203125" customWidth="1"/>
     <col min="63" max="63" width="42" customWidth="1"/>
     <col min="64" max="75" width="10.83203125" customWidth="1"/>
-    <col min="76" max="76" width="21.6640625" style="18" customWidth="1"/>
-    <col min="77" max="77" width="26" customWidth="1"/>
-    <col min="78" max="78" width="29.83203125" customWidth="1"/>
-    <col min="79" max="79" width="24.1640625" customWidth="1"/>
+    <col min="76" max="76" width="39.33203125" style="18" customWidth="1"/>
+    <col min="77" max="78" width="26" customWidth="1"/>
+    <col min="79" max="79" width="29.83203125" customWidth="1"/>
+    <col min="80" max="80" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="15" customFormat="1">
+    <row r="1" spans="1:82" s="15" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -10079,17 +10257,17 @@
       <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="22" t="s">
-        <v>1593</v>
+      <c r="M1" s="25" t="s">
+        <v>1589</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>1594</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>1663</v>
+        <v>1590</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>1658</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>7</v>
@@ -10104,10 +10282,10 @@
         <v>13</v>
       </c>
       <c r="U1" s="22" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="V1" s="22" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="W1" s="15" t="s">
         <v>11</v>
@@ -10122,13 +10300,13 @@
         <v>15</v>
       </c>
       <c r="AA1" s="18" t="s">
-        <v>1595</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>1596</v>
+        <v>1591</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>1692</v>
       </c>
       <c r="AC1" s="18" t="s">
-        <v>1340</v>
+        <v>1675</v>
       </c>
       <c r="AD1" s="15" t="s">
         <v>11</v>
@@ -10146,7 +10324,7 @@
         <v>18</v>
       </c>
       <c r="AJ1" s="22" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="AK1" s="18" t="s">
         <v>1340</v>
@@ -10161,7 +10339,7 @@
         <v>19</v>
       </c>
       <c r="AO1" s="22" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="AP1" s="15" t="s">
         <v>11</v>
@@ -10176,10 +10354,10 @@
         <v>21</v>
       </c>
       <c r="AT1" s="22" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="AU1" s="22" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="AV1" s="15" t="s">
         <v>11</v>
@@ -10191,10 +10369,10 @@
         <v>22</v>
       </c>
       <c r="AY1" s="22" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="AZ1" s="22" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="BA1" s="15" t="s">
         <v>11</v>
@@ -10209,7 +10387,7 @@
         <v>24</v>
       </c>
       <c r="BE1" s="22" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="BF1" s="15" t="s">
         <v>11</v>
@@ -10221,7 +10399,7 @@
         <v>25</v>
       </c>
       <c r="BI1" s="22" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="BJ1" s="15" t="s">
         <v>11</v>
@@ -10265,26 +10443,29 @@
       <c r="BW1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="BX1" s="18" t="s">
-        <v>1340</v>
+      <c r="BX1" s="21" t="s">
+        <v>1717</v>
       </c>
       <c r="BY1" s="17" t="s">
         <v>1281</v>
       </c>
       <c r="BZ1" s="17" t="s">
+        <v>1734</v>
+      </c>
+      <c r="CA1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="CA1" s="17" t="s">
+      <c r="CB1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="CB1" s="15" t="s">
+      <c r="CC1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="CC1" s="15" t="s">
+      <c r="CD1" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:81">
+    <row r="2" spans="1:82">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10321,17 +10502,17 @@
       <c r="L2" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="M2" s="23" t="s">
-        <v>1647</v>
+      <c r="M2" s="26" t="s">
+        <v>1642</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>1580</v>
       </c>
-      <c r="P2" t="s">
-        <v>1664</v>
+      <c r="P2" s="25" t="s">
+        <v>1659</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>1233</v>
@@ -10346,10 +10527,10 @@
         <v>46</v>
       </c>
       <c r="U2" s="23" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="V2" s="23" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>1229</v>
@@ -10366,11 +10547,11 @@
       <c r="AA2" s="18" t="s">
         <v>1371</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AC2" s="18" t="s">
         <v>1581</v>
-      </c>
-      <c r="AC2" s="18" t="s">
-        <v>1397</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>49</v>
@@ -10388,7 +10569,7 @@
         <v>52</v>
       </c>
       <c r="AJ2" s="23" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="AK2" s="18" t="s">
         <v>1427</v>
@@ -10403,7 +10584,7 @@
         <v>54</v>
       </c>
       <c r="AO2" s="23" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="AP2" s="4" t="s">
         <v>55</v>
@@ -10418,10 +10599,10 @@
         <v>57</v>
       </c>
       <c r="AT2" s="23" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="AU2" s="23" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="AV2" s="5" t="s">
         <v>58</v>
@@ -10433,10 +10614,10 @@
         <v>59</v>
       </c>
       <c r="AY2" s="23" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="AZ2" s="23" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="BA2" s="5" t="s">
         <v>60</v>
@@ -10451,7 +10632,7 @@
         <v>62</v>
       </c>
       <c r="BE2" s="23" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="BF2" s="5" t="s">
         <v>924</v>
@@ -10463,7 +10644,7 @@
         <v>63</v>
       </c>
       <c r="BI2" s="23" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="BJ2" s="5" t="s">
         <v>954</v>
@@ -10513,20 +10694,23 @@
       <c r="BY2" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="BZ2" s="14" t="s">
+      <c r="BZ2" s="3" t="s">
+        <v>1718</v>
+      </c>
+      <c r="CA2" s="14" t="s">
         <v>1283</v>
       </c>
-      <c r="CA2" s="8" t="s">
+      <c r="CB2" s="8" t="s">
         <v>1282</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>76</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:81">
+    <row r="3" spans="1:82">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10563,17 +10747,17 @@
       <c r="L3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="23" t="s">
-        <v>1648</v>
+      <c r="M3" s="26" t="s">
+        <v>1643</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>1586</v>
-      </c>
-      <c r="P3" t="s">
-        <v>1665</v>
+        <v>1582</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>1660</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>1239</v>
@@ -10588,10 +10772,10 @@
         <v>83</v>
       </c>
       <c r="U3" s="23" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="V3" s="23" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>84</v>
@@ -10608,11 +10792,11 @@
       <c r="AA3" s="18" t="s">
         <v>1559</v>
       </c>
-      <c r="AB3" s="18" t="s">
-        <v>1597</v>
+      <c r="AB3" s="1" t="s">
+        <v>1702</v>
       </c>
       <c r="AC3" s="18" t="s">
-        <v>1582</v>
+        <v>1592</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>87</v>
@@ -10630,7 +10814,7 @@
         <v>90</v>
       </c>
       <c r="AJ3" s="23" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="AK3" s="18" t="s">
         <v>1428</v>
@@ -10645,7 +10829,7 @@
         <v>92</v>
       </c>
       <c r="AO3" s="23" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="AP3" s="4" t="s">
         <v>93</v>
@@ -10660,10 +10844,10 @@
         <v>95</v>
       </c>
       <c r="AT3" s="23" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="AU3" s="23" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="AV3" s="5" t="s">
         <v>96</v>
@@ -10675,10 +10859,10 @@
         <v>97</v>
       </c>
       <c r="AY3" s="23" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="AZ3" s="23" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="BA3" s="5" t="s">
         <v>98</v>
@@ -10693,7 +10877,7 @@
         <v>100</v>
       </c>
       <c r="BE3" s="23" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="BF3" s="5" t="s">
         <v>925</v>
@@ -10705,7 +10889,7 @@
         <v>101</v>
       </c>
       <c r="BI3" s="23" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="BJ3" s="5" t="s">
         <v>955</v>
@@ -10755,20 +10939,23 @@
       <c r="BY3" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="BZ3" s="14" t="s">
+      <c r="BZ3" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="CA3" s="14" t="s">
         <v>1285</v>
       </c>
-      <c r="CA3" s="8" t="s">
+      <c r="CB3" s="8" t="s">
         <v>1284</v>
       </c>
-      <c r="CB3" t="s">
+      <c r="CC3" t="s">
         <v>114</v>
       </c>
-      <c r="CC3" t="s">
+      <c r="CD3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:81">
+    <row r="4" spans="1:82">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10805,17 +10992,17 @@
       <c r="L4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>1649</v>
+      <c r="M4" s="26" t="s">
+        <v>1644</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>1587</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1666</v>
+        <v>1583</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>1661</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>1238</v>
@@ -10830,10 +11017,10 @@
         <v>121</v>
       </c>
       <c r="U4" s="23" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="V4" s="23" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>122</v>
@@ -10850,11 +11037,11 @@
       <c r="AA4" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="AB4" s="18" t="s">
-        <v>1598</v>
+      <c r="AB4" s="1" t="s">
+        <v>1703</v>
       </c>
       <c r="AC4" s="18" t="s">
-        <v>1401</v>
+        <v>1593</v>
       </c>
       <c r="AD4" s="2" t="s">
         <v>125</v>
@@ -10872,7 +11059,7 @@
         <v>128</v>
       </c>
       <c r="AJ4" s="23" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="AK4" s="18" t="s">
         <v>1437</v>
@@ -10887,7 +11074,7 @@
         <v>130</v>
       </c>
       <c r="AO4" s="23" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="AP4" s="4" t="s">
         <v>131</v>
@@ -10902,10 +11089,10 @@
         <v>133</v>
       </c>
       <c r="AT4" s="23" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="AU4" s="23" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="AV4" s="5" t="s">
         <v>134</v>
@@ -10917,10 +11104,10 @@
         <v>135</v>
       </c>
       <c r="AY4" s="23" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="AZ4" s="23" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="BA4" s="5" t="s">
         <v>136</v>
@@ -10935,7 +11122,7 @@
         <v>138</v>
       </c>
       <c r="BE4" s="23" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="BF4" s="5" t="s">
         <v>926</v>
@@ -10947,7 +11134,7 @@
         <v>139</v>
       </c>
       <c r="BI4" s="23" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="BJ4" s="5" t="s">
         <v>956</v>
@@ -10997,20 +11184,23 @@
       <c r="BY4" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="BZ4" s="14" t="s">
+      <c r="BZ4" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="CA4" s="14" t="s">
         <v>1286</v>
       </c>
-      <c r="CA4" s="8" t="s">
+      <c r="CB4" s="8" t="s">
         <v>1287</v>
       </c>
-      <c r="CB4" t="s">
+      <c r="CC4" t="s">
         <v>152</v>
       </c>
-      <c r="CC4" t="s">
+      <c r="CD4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:81">
+    <row r="5" spans="1:82">
       <c r="A5">
         <v>1</v>
       </c>
@@ -11047,17 +11237,17 @@
       <c r="L5" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M5" s="23" t="s">
-        <v>1650</v>
+      <c r="M5" s="26" t="s">
+        <v>1645</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>1588</v>
-      </c>
-      <c r="P5" t="s">
-        <v>1667</v>
+        <v>1584</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>1662</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>1250</v>
@@ -11072,10 +11262,10 @@
         <v>159</v>
       </c>
       <c r="U5" s="23" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="V5" s="23" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>160</v>
@@ -11092,11 +11282,11 @@
       <c r="AA5" s="18" t="s">
         <v>1374</v>
       </c>
-      <c r="AB5" s="18" t="s">
-        <v>1599</v>
+      <c r="AB5" s="1" t="s">
+        <v>1704</v>
       </c>
       <c r="AC5" s="18" t="s">
-        <v>1402</v>
+        <v>1594</v>
       </c>
       <c r="AD5" s="2" t="s">
         <v>163</v>
@@ -11114,7 +11304,7 @@
         <v>166</v>
       </c>
       <c r="AJ5" s="23" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="AK5" s="18" t="s">
         <v>1457</v>
@@ -11129,7 +11319,7 @@
         <v>168</v>
       </c>
       <c r="AO5" s="23" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="AP5" s="4" t="s">
         <v>169</v>
@@ -11144,10 +11334,10 @@
         <v>171</v>
       </c>
       <c r="AT5" s="23" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="AU5" s="23" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="AV5" s="5" t="s">
         <v>172</v>
@@ -11159,10 +11349,10 @@
         <v>173</v>
       </c>
       <c r="AY5" s="23" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="AZ5" s="23" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="BA5" s="5" t="s">
         <v>174</v>
@@ -11177,7 +11367,7 @@
         <v>176</v>
       </c>
       <c r="BE5" s="23" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="BF5" s="5" t="s">
         <v>927</v>
@@ -11189,7 +11379,7 @@
         <v>177</v>
       </c>
       <c r="BI5" s="23" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="BJ5" s="5" t="s">
         <v>957</v>
@@ -11239,20 +11429,23 @@
       <c r="BY5" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="BZ5" s="14" t="s">
+      <c r="BZ5" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="CA5" s="14" t="s">
         <v>1288</v>
       </c>
-      <c r="CA5" s="8" t="s">
+      <c r="CB5" s="8" t="s">
         <v>1301</v>
       </c>
-      <c r="CB5" t="s">
+      <c r="CC5" t="s">
         <v>190</v>
       </c>
-      <c r="CC5" t="s">
+      <c r="CD5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:81">
+    <row r="6" spans="1:82">
       <c r="A6">
         <v>1</v>
       </c>
@@ -11289,17 +11482,17 @@
       <c r="L6" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="M6" s="23" t="s">
-        <v>1651</v>
+      <c r="M6" s="26" t="s">
+        <v>1646</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>1590</v>
-      </c>
-      <c r="P6" t="s">
-        <v>1668</v>
+        <v>1586</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>1663</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>1236</v>
@@ -11314,10 +11507,10 @@
         <v>197</v>
       </c>
       <c r="U6" s="23" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="V6" s="23" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>198</v>
@@ -11334,11 +11527,11 @@
       <c r="AA6" s="18" t="s">
         <v>1375</v>
       </c>
-      <c r="AB6" s="18" t="s">
-        <v>1600</v>
+      <c r="AB6" s="1" t="s">
+        <v>1705</v>
       </c>
       <c r="AC6" s="18" t="s">
-        <v>1403</v>
+        <v>1595</v>
       </c>
       <c r="AD6" s="2" t="s">
         <v>201</v>
@@ -11356,7 +11549,7 @@
         <v>204</v>
       </c>
       <c r="AJ6" s="23" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="AK6" s="18" t="s">
         <v>1429</v>
@@ -11371,7 +11564,7 @@
         <v>206</v>
       </c>
       <c r="AO6" s="23" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="AP6" s="4" t="s">
         <v>207</v>
@@ -11386,10 +11579,10 @@
         <v>209</v>
       </c>
       <c r="AT6" s="23" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="AU6" s="23" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="AV6" s="5" t="s">
         <v>210</v>
@@ -11401,10 +11594,10 @@
         <v>211</v>
       </c>
       <c r="AY6" s="23" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="AZ6" s="23" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="BA6" s="5" t="s">
         <v>212</v>
@@ -11419,7 +11612,7 @@
         <v>214</v>
       </c>
       <c r="BE6" s="23" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="BF6" s="5" t="s">
         <v>928</v>
@@ -11431,7 +11624,7 @@
         <v>215</v>
       </c>
       <c r="BI6" s="23" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="BJ6" s="5" t="s">
         <v>958</v>
@@ -11481,20 +11674,23 @@
       <c r="BY6" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="BZ6" s="14" t="s">
+      <c r="BZ6" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="CA6" s="14" t="s">
         <v>1289</v>
       </c>
-      <c r="CA6" s="8" t="s">
+      <c r="CB6" s="8" t="s">
         <v>1302</v>
       </c>
-      <c r="CB6" t="s">
+      <c r="CC6" t="s">
         <v>228</v>
       </c>
-      <c r="CC6" t="s">
+      <c r="CD6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:81">
+    <row r="7" spans="1:82">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11531,17 +11727,17 @@
       <c r="L7" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="M7" s="23" t="s">
-        <v>1652</v>
+      <c r="M7" s="26" t="s">
+        <v>1647</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>1589</v>
-      </c>
-      <c r="P7" t="s">
-        <v>1669</v>
+        <v>1585</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>1664</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>1237</v>
@@ -11556,10 +11752,10 @@
         <v>235</v>
       </c>
       <c r="U7" s="23" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="V7" s="23" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="W7" s="4" t="s">
         <v>236</v>
@@ -11576,11 +11772,11 @@
       <c r="AA7" s="18" t="s">
         <v>1376</v>
       </c>
-      <c r="AB7" s="18" t="s">
-        <v>1601</v>
+      <c r="AB7" s="1" t="s">
+        <v>1706</v>
       </c>
       <c r="AC7" s="18" t="s">
-        <v>1404</v>
+        <v>1596</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>239</v>
@@ -11598,7 +11794,7 @@
         <v>242</v>
       </c>
       <c r="AJ7" s="23" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="AK7" s="18" t="s">
         <v>1489</v>
@@ -11613,7 +11809,7 @@
         <v>243</v>
       </c>
       <c r="AO7" s="23" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="AP7" s="4" t="s">
         <v>244</v>
@@ -11628,10 +11824,10 @@
         <v>246</v>
       </c>
       <c r="AT7" s="23" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="AU7" s="23" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="AV7" s="7" t="s">
         <v>247</v>
@@ -11643,10 +11839,10 @@
         <v>248</v>
       </c>
       <c r="AY7" s="23" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="AZ7" s="23" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="BA7" s="7" t="s">
         <v>249</v>
@@ -11661,7 +11857,7 @@
         <v>251</v>
       </c>
       <c r="BE7" s="23" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="BF7" s="7" t="s">
         <v>929</v>
@@ -11673,7 +11869,7 @@
         <v>252</v>
       </c>
       <c r="BI7" s="23" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="BJ7" s="7" t="s">
         <v>959</v>
@@ -11723,20 +11919,23 @@
       <c r="BY7" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="BZ7" s="14" t="s">
+      <c r="BZ7" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="CA7" s="14" t="s">
         <v>1290</v>
       </c>
-      <c r="CA7" s="8" t="s">
+      <c r="CB7" s="8" t="s">
         <v>1303</v>
       </c>
-      <c r="CB7" t="s">
+      <c r="CC7" t="s">
         <v>265</v>
       </c>
-      <c r="CC7" t="s">
+      <c r="CD7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:81">
+    <row r="8" spans="1:82">
       <c r="A8">
         <v>1</v>
       </c>
@@ -11773,17 +11972,17 @@
       <c r="L8" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="M8" s="23" t="s">
-        <v>1654</v>
+      <c r="M8" s="26" t="s">
+        <v>1649</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>1592</v>
-      </c>
-      <c r="P8" t="s">
-        <v>1670</v>
+        <v>1588</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>1665</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>1234</v>
@@ -11798,10 +11997,10 @@
         <v>272</v>
       </c>
       <c r="U8" s="23" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="V8" s="23" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="W8" s="4" t="s">
         <v>273</v>
@@ -11818,11 +12017,11 @@
       <c r="AA8" s="18" t="s">
         <v>1560</v>
       </c>
-      <c r="AB8" s="18" t="s">
-        <v>1602</v>
+      <c r="AB8" s="1" t="s">
+        <v>1707</v>
       </c>
       <c r="AC8" s="18" t="s">
-        <v>1584</v>
+        <v>1597</v>
       </c>
       <c r="AD8" s="2" t="s">
         <v>276</v>
@@ -11840,7 +12039,7 @@
         <v>279</v>
       </c>
       <c r="AJ8" s="23" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="AK8" s="18" t="s">
         <v>1430</v>
@@ -11855,7 +12054,7 @@
         <v>281</v>
       </c>
       <c r="AO8" s="23" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="AP8" s="4" t="s">
         <v>282</v>
@@ -11870,10 +12069,10 @@
         <v>284</v>
       </c>
       <c r="AT8" s="23" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="AU8" s="23" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="AV8" s="4" t="s">
         <v>285</v>
@@ -11885,10 +12084,10 @@
         <v>286</v>
       </c>
       <c r="AY8" s="23" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="AZ8" s="23" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="BA8" s="4" t="s">
         <v>287</v>
@@ -11903,7 +12102,7 @@
         <v>289</v>
       </c>
       <c r="BE8" s="23" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="BF8" s="4" t="s">
         <v>930</v>
@@ -11915,7 +12114,7 @@
         <v>290</v>
       </c>
       <c r="BI8" s="23" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="BJ8" s="4" t="s">
         <v>960</v>
@@ -11965,20 +12164,23 @@
       <c r="BY8" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="BZ8" s="14" t="s">
+      <c r="BZ8" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="CA8" s="14" t="s">
         <v>1291</v>
       </c>
-      <c r="CA8" s="8" t="s">
+      <c r="CB8" s="8" t="s">
         <v>1304</v>
       </c>
-      <c r="CB8" t="s">
+      <c r="CC8" t="s">
         <v>303</v>
       </c>
-      <c r="CC8" t="s">
+      <c r="CD8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:81">
+    <row r="9" spans="1:82">
       <c r="A9">
         <v>1</v>
       </c>
@@ -12015,17 +12217,17 @@
       <c r="L9" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="M9" s="23" t="s">
-        <v>1653</v>
+      <c r="M9" s="26" t="s">
+        <v>1648</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>1591</v>
-      </c>
-      <c r="P9" t="s">
-        <v>1671</v>
+        <v>1587</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>1666</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>1240</v>
@@ -12040,10 +12242,10 @@
         <v>310</v>
       </c>
       <c r="U9" s="23" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="V9" s="23" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="W9" s="4" t="s">
         <v>311</v>
@@ -12060,11 +12262,11 @@
       <c r="AA9" s="18" t="s">
         <v>1396</v>
       </c>
-      <c r="AB9" s="18" t="s">
-        <v>1603</v>
+      <c r="AB9" s="1" t="s">
+        <v>1708</v>
       </c>
       <c r="AC9" s="18" t="s">
-        <v>1406</v>
+        <v>1598</v>
       </c>
       <c r="AD9" s="2" t="s">
         <v>314</v>
@@ -12082,7 +12284,7 @@
         <v>317</v>
       </c>
       <c r="AJ9" s="23" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="AK9" s="18" t="s">
         <v>1431</v>
@@ -12097,7 +12299,7 @@
         <v>318</v>
       </c>
       <c r="AO9" s="23" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="AP9" s="4" t="s">
         <v>319</v>
@@ -12112,10 +12314,10 @@
         <v>321</v>
       </c>
       <c r="AT9" s="23" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="AU9" s="23" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="AV9" s="4" t="s">
         <v>322</v>
@@ -12127,10 +12329,10 @@
         <v>323</v>
       </c>
       <c r="AY9" s="23" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="AZ9" s="23" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="BA9" s="4" t="s">
         <v>324</v>
@@ -12145,7 +12347,7 @@
         <v>326</v>
       </c>
       <c r="BE9" s="23" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="BF9" s="4" t="s">
         <v>931</v>
@@ -12157,7 +12359,7 @@
         <v>327</v>
       </c>
       <c r="BI9" s="23" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="BJ9" s="4" t="s">
         <v>961</v>
@@ -12207,20 +12409,23 @@
       <c r="BY9" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="BZ9" s="14" t="s">
+      <c r="BZ9" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="CA9" s="14" t="s">
         <v>1292</v>
       </c>
-      <c r="CA9" s="8" t="s">
+      <c r="CB9" s="8" t="s">
         <v>1305</v>
       </c>
-      <c r="CB9" t="s">
+      <c r="CC9" t="s">
         <v>340</v>
       </c>
-      <c r="CC9" t="s">
+      <c r="CD9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="1:81">
+    <row r="10" spans="1:82">
       <c r="A10">
         <v>3</v>
       </c>
@@ -12257,17 +12462,17 @@
       <c r="L10" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="M10" s="23" t="s">
-        <v>1647</v>
+      <c r="M10" s="26" t="s">
+        <v>1642</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="O10" s="19" t="s">
         <v>1580</v>
       </c>
-      <c r="P10" t="s">
-        <v>1664</v>
+      <c r="P10" s="25" t="s">
+        <v>1659</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>1233</v>
@@ -12282,10 +12487,10 @@
         <v>46</v>
       </c>
       <c r="U10" s="23" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="V10" s="23" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>1229</v>
@@ -12302,11 +12507,11 @@
       <c r="AA10" s="18" t="s">
         <v>1371</v>
       </c>
-      <c r="AB10" s="18" t="s">
+      <c r="AB10" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AC10" s="18" t="s">
         <v>1581</v>
-      </c>
-      <c r="AC10" s="18" t="s">
-        <v>1399</v>
       </c>
       <c r="AD10" s="2" t="s">
         <v>49</v>
@@ -12324,7 +12529,7 @@
         <v>343</v>
       </c>
       <c r="AJ10" s="23" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="AK10" s="18" t="s">
         <v>1432</v>
@@ -12339,7 +12544,7 @@
         <v>344</v>
       </c>
       <c r="AO10" s="23" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="AP10" s="4" t="s">
         <v>345</v>
@@ -12354,10 +12559,10 @@
         <v>346</v>
       </c>
       <c r="AT10" s="23" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="AU10" s="23" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="AV10" s="5" t="s">
         <v>347</v>
@@ -12369,10 +12574,10 @@
         <v>348</v>
       </c>
       <c r="AY10" s="23" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="AZ10" s="23" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="BA10" s="5" t="s">
         <v>349</v>
@@ -12387,7 +12592,7 @@
         <v>350</v>
       </c>
       <c r="BE10" s="23" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="BF10" s="5" t="s">
         <v>932</v>
@@ -12399,7 +12604,7 @@
         <v>351</v>
       </c>
       <c r="BI10" s="23" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="BJ10" s="5" t="s">
         <v>962</v>
@@ -12449,20 +12654,23 @@
       <c r="BY10" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="BZ10" s="14" t="s">
+      <c r="BZ10" s="3" t="s">
+        <v>1718</v>
+      </c>
+      <c r="CA10" s="14" t="s">
         <v>1283</v>
       </c>
-      <c r="CA10" s="8" t="s">
+      <c r="CB10" s="8" t="s">
         <v>1282</v>
       </c>
-      <c r="CB10" t="s">
+      <c r="CC10" t="s">
         <v>76</v>
       </c>
-      <c r="CC10" t="s">
+      <c r="CD10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:81">
+    <row r="11" spans="1:82">
       <c r="A11">
         <v>3</v>
       </c>
@@ -12499,17 +12707,17 @@
       <c r="L11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="23" t="s">
-        <v>1648</v>
+      <c r="M11" s="26" t="s">
+        <v>1643</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>1586</v>
-      </c>
-      <c r="P11" t="s">
-        <v>1665</v>
+        <v>1582</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>1660</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>1239</v>
@@ -12524,10 +12732,10 @@
         <v>83</v>
       </c>
       <c r="U11" s="23" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="V11" s="23" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>84</v>
@@ -12544,11 +12752,11 @@
       <c r="AA11" s="18" t="s">
         <v>1559</v>
       </c>
-      <c r="AB11" s="18" t="s">
-        <v>1597</v>
+      <c r="AB11" s="1" t="s">
+        <v>1702</v>
       </c>
       <c r="AC11" s="18" t="s">
-        <v>1583</v>
+        <v>1592</v>
       </c>
       <c r="AD11" s="2" t="s">
         <v>87</v>
@@ -12566,7 +12774,7 @@
         <v>360</v>
       </c>
       <c r="AJ11" s="23" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="AK11" s="18" t="s">
         <v>1438</v>
@@ -12581,7 +12789,7 @@
         <v>362</v>
       </c>
       <c r="AO11" s="23" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="AP11" s="4" t="s">
         <v>363</v>
@@ -12596,10 +12804,10 @@
         <v>364</v>
       </c>
       <c r="AT11" s="23" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="AU11" s="23" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="AV11" s="5" t="s">
         <v>365</v>
@@ -12611,10 +12819,10 @@
         <v>366</v>
       </c>
       <c r="AY11" s="23" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="AZ11" s="23" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="BA11" s="5" t="s">
         <v>367</v>
@@ -12629,7 +12837,7 @@
         <v>368</v>
       </c>
       <c r="BE11" s="23" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="BF11" s="5" t="s">
         <v>933</v>
@@ -12641,7 +12849,7 @@
         <v>369</v>
       </c>
       <c r="BI11" s="23" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="BJ11" s="5" t="s">
         <v>963</v>
@@ -12691,20 +12899,23 @@
       <c r="BY11" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="BZ11" s="14" t="s">
+      <c r="BZ11" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="CA11" s="14" t="s">
         <v>1285</v>
       </c>
-      <c r="CA11" s="8" t="s">
+      <c r="CB11" s="8" t="s">
         <v>1284</v>
       </c>
-      <c r="CB11" t="s">
+      <c r="CC11" t="s">
         <v>114</v>
       </c>
-      <c r="CC11" t="s">
+      <c r="CD11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:81">
+    <row r="12" spans="1:82">
       <c r="A12">
         <v>3</v>
       </c>
@@ -12741,17 +12952,17 @@
       <c r="L12" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M12" s="23" t="s">
-        <v>1649</v>
+      <c r="M12" s="26" t="s">
+        <v>1644</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>1587</v>
-      </c>
-      <c r="P12" t="s">
-        <v>1666</v>
+        <v>1583</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>1661</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>1238</v>
@@ -12766,10 +12977,10 @@
         <v>121</v>
       </c>
       <c r="U12" s="23" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="V12" s="23" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>122</v>
@@ -12786,11 +12997,11 @@
       <c r="AA12" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="AB12" s="18" t="s">
-        <v>1598</v>
+      <c r="AB12" s="1" t="s">
+        <v>1703</v>
       </c>
       <c r="AC12" s="18" t="s">
-        <v>1407</v>
+        <v>1593</v>
       </c>
       <c r="AD12" s="2" t="s">
         <v>125</v>
@@ -12808,7 +13019,7 @@
         <v>378</v>
       </c>
       <c r="AJ12" s="23" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="AK12" s="18" t="s">
         <v>1439</v>
@@ -12823,7 +13034,7 @@
         <v>380</v>
       </c>
       <c r="AO12" s="23" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="AP12" s="4" t="s">
         <v>381</v>
@@ -12838,10 +13049,10 @@
         <v>382</v>
       </c>
       <c r="AT12" s="23" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="AU12" s="23" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="AV12" s="5" t="s">
         <v>383</v>
@@ -12853,10 +13064,10 @@
         <v>384</v>
       </c>
       <c r="AY12" s="23" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="AZ12" s="23" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="BA12" s="5" t="s">
         <v>385</v>
@@ -12871,7 +13082,7 @@
         <v>386</v>
       </c>
       <c r="BE12" s="23" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="BF12" s="5" t="s">
         <v>934</v>
@@ -12883,7 +13094,7 @@
         <v>387</v>
       </c>
       <c r="BI12" s="23" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="BJ12" s="5" t="s">
         <v>964</v>
@@ -12933,20 +13144,23 @@
       <c r="BY12" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="BZ12" s="14" t="s">
+      <c r="BZ12" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="CA12" s="14" t="s">
         <v>1286</v>
       </c>
-      <c r="CA12" s="8" t="s">
+      <c r="CB12" s="8" t="s">
         <v>1287</v>
       </c>
-      <c r="CB12" t="s">
+      <c r="CC12" t="s">
         <v>152</v>
       </c>
-      <c r="CC12" t="s">
+      <c r="CD12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:81">
+    <row r="13" spans="1:82">
       <c r="A13">
         <v>3</v>
       </c>
@@ -12983,17 +13197,17 @@
       <c r="L13" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M13" s="23" t="s">
-        <v>1650</v>
+      <c r="M13" s="26" t="s">
+        <v>1645</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>1588</v>
-      </c>
-      <c r="P13" t="s">
-        <v>1667</v>
+        <v>1584</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>1662</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>1250</v>
@@ -13008,10 +13222,10 @@
         <v>159</v>
       </c>
       <c r="U13" s="23" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="V13" s="23" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>160</v>
@@ -13028,11 +13242,11 @@
       <c r="AA13" s="18" t="s">
         <v>1374</v>
       </c>
-      <c r="AB13" s="18" t="s">
-        <v>1599</v>
+      <c r="AB13" s="1" t="s">
+        <v>1704</v>
       </c>
       <c r="AC13" s="18" t="s">
-        <v>1408</v>
+        <v>1594</v>
       </c>
       <c r="AD13" s="2" t="s">
         <v>163</v>
@@ -13050,7 +13264,7 @@
         <v>396</v>
       </c>
       <c r="AJ13" s="23" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="AK13" s="18" t="s">
         <v>1456</v>
@@ -13065,7 +13279,7 @@
         <v>398</v>
       </c>
       <c r="AO13" s="23" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="AP13" s="4" t="s">
         <v>399</v>
@@ -13080,10 +13294,10 @@
         <v>400</v>
       </c>
       <c r="AT13" s="23" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="AU13" s="23" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="AV13" s="5" t="s">
         <v>401</v>
@@ -13095,10 +13309,10 @@
         <v>402</v>
       </c>
       <c r="AY13" s="23" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="AZ13" s="23" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="BA13" s="5" t="s">
         <v>403</v>
@@ -13113,7 +13327,7 @@
         <v>404</v>
       </c>
       <c r="BE13" s="23" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="BF13" s="5" t="s">
         <v>935</v>
@@ -13125,7 +13339,7 @@
         <v>405</v>
       </c>
       <c r="BI13" s="23" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="BJ13" s="5" t="s">
         <v>965</v>
@@ -13175,20 +13389,23 @@
       <c r="BY13" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="BZ13" s="14" t="s">
+      <c r="BZ13" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="CA13" s="14" t="s">
         <v>1288</v>
       </c>
-      <c r="CA13" s="8" t="s">
+      <c r="CB13" s="8" t="s">
         <v>1301</v>
       </c>
-      <c r="CB13" t="s">
+      <c r="CC13" t="s">
         <v>190</v>
       </c>
-      <c r="CC13" t="s">
+      <c r="CD13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:81">
+    <row r="14" spans="1:82">
       <c r="A14">
         <v>3</v>
       </c>
@@ -13225,17 +13442,17 @@
       <c r="L14" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="M14" s="23" t="s">
-        <v>1651</v>
+      <c r="M14" s="26" t="s">
+        <v>1646</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>1590</v>
-      </c>
-      <c r="P14" t="s">
-        <v>1668</v>
+        <v>1586</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>1663</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>1236</v>
@@ -13250,10 +13467,10 @@
         <v>197</v>
       </c>
       <c r="U14" s="23" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="V14" s="23" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>198</v>
@@ -13270,11 +13487,11 @@
       <c r="AA14" s="18" t="s">
         <v>1375</v>
       </c>
-      <c r="AB14" s="18" t="s">
-        <v>1600</v>
+      <c r="AB14" s="1" t="s">
+        <v>1705</v>
       </c>
       <c r="AC14" s="18" t="s">
-        <v>1409</v>
+        <v>1595</v>
       </c>
       <c r="AD14" s="2" t="s">
         <v>201</v>
@@ -13292,7 +13509,7 @@
         <v>414</v>
       </c>
       <c r="AJ14" s="23" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="AK14" s="18" t="s">
         <v>1435</v>
@@ -13307,7 +13524,7 @@
         <v>416</v>
       </c>
       <c r="AO14" s="23" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="AP14" s="4" t="s">
         <v>417</v>
@@ -13322,10 +13539,10 @@
         <v>418</v>
       </c>
       <c r="AT14" s="23" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="AU14" s="23" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="AV14" s="5" t="s">
         <v>419</v>
@@ -13337,10 +13554,10 @@
         <v>420</v>
       </c>
       <c r="AY14" s="23" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="AZ14" s="23" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="BA14" s="5" t="s">
         <v>421</v>
@@ -13355,7 +13572,7 @@
         <v>422</v>
       </c>
       <c r="BE14" s="23" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="BF14" s="5" t="s">
         <v>936</v>
@@ -13367,7 +13584,7 @@
         <v>423</v>
       </c>
       <c r="BI14" s="23" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="BJ14" s="5" t="s">
         <v>966</v>
@@ -13417,20 +13634,23 @@
       <c r="BY14" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="BZ14" s="14" t="s">
+      <c r="BZ14" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="CA14" s="14" t="s">
         <v>1289</v>
       </c>
-      <c r="CA14" s="8" t="s">
+      <c r="CB14" s="8" t="s">
         <v>1302</v>
       </c>
-      <c r="CB14" t="s">
+      <c r="CC14" t="s">
         <v>228</v>
       </c>
-      <c r="CC14" t="s">
+      <c r="CD14" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:81">
+    <row r="15" spans="1:82">
       <c r="A15">
         <v>3</v>
       </c>
@@ -13467,17 +13687,17 @@
       <c r="L15" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="M15" s="23" t="s">
-        <v>1652</v>
+      <c r="M15" s="26" t="s">
+        <v>1647</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>1589</v>
-      </c>
-      <c r="P15" t="s">
-        <v>1669</v>
+        <v>1585</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>1664</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>1237</v>
@@ -13492,10 +13712,10 @@
         <v>235</v>
       </c>
       <c r="U15" s="23" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="V15" s="23" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>236</v>
@@ -13512,11 +13732,11 @@
       <c r="AA15" s="18" t="s">
         <v>1376</v>
       </c>
-      <c r="AB15" s="18" t="s">
-        <v>1601</v>
+      <c r="AB15" s="1" t="s">
+        <v>1706</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>1410</v>
+        <v>1596</v>
       </c>
       <c r="AD15" s="2" t="s">
         <v>239</v>
@@ -13534,7 +13754,7 @@
         <v>432</v>
       </c>
       <c r="AJ15" s="23" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="AK15" s="18" t="s">
         <v>1436</v>
@@ -13549,7 +13769,7 @@
         <v>434</v>
       </c>
       <c r="AO15" s="23" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="AP15" s="4" t="s">
         <v>435</v>
@@ -13564,10 +13784,10 @@
         <v>436</v>
       </c>
       <c r="AT15" s="23" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="AU15" s="23" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="AV15" s="4" t="s">
         <v>437</v>
@@ -13579,10 +13799,10 @@
         <v>438</v>
       </c>
       <c r="AY15" s="23" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="AZ15" s="23" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="BA15" s="4" t="s">
         <v>439</v>
@@ -13597,7 +13817,7 @@
         <v>440</v>
       </c>
       <c r="BE15" s="23" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="BF15" s="4" t="s">
         <v>937</v>
@@ -13609,7 +13829,7 @@
         <v>441</v>
       </c>
       <c r="BI15" s="23" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="BJ15" s="4" t="s">
         <v>967</v>
@@ -13659,20 +13879,23 @@
       <c r="BY15" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="BZ15" s="14" t="s">
+      <c r="BZ15" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="CA15" s="14" t="s">
         <v>1290</v>
       </c>
-      <c r="CA15" s="8" t="s">
+      <c r="CB15" s="8" t="s">
         <v>1303</v>
       </c>
-      <c r="CB15" t="s">
+      <c r="CC15" t="s">
         <v>265</v>
       </c>
-      <c r="CC15" t="s">
+      <c r="CD15" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:81">
+    <row r="16" spans="1:82">
       <c r="A16">
         <v>3</v>
       </c>
@@ -13709,17 +13932,17 @@
       <c r="L16" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="M16" s="23" t="s">
-        <v>1654</v>
+      <c r="M16" s="26" t="s">
+        <v>1649</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>1592</v>
-      </c>
-      <c r="P16" t="s">
-        <v>1670</v>
+        <v>1588</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>1665</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>1234</v>
@@ -13734,10 +13957,10 @@
         <v>272</v>
       </c>
       <c r="U16" s="23" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="V16" s="23" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="W16" s="4" t="s">
         <v>273</v>
@@ -13754,11 +13977,11 @@
       <c r="AA16" s="18" t="s">
         <v>1560</v>
       </c>
-      <c r="AB16" s="18" t="s">
-        <v>1602</v>
+      <c r="AB16" s="1" t="s">
+        <v>1707</v>
       </c>
       <c r="AC16" s="18" t="s">
-        <v>1585</v>
+        <v>1597</v>
       </c>
       <c r="AD16" s="2" t="s">
         <v>276</v>
@@ -13776,7 +13999,7 @@
         <v>450</v>
       </c>
       <c r="AJ16" s="23" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="AK16" s="18" t="s">
         <v>1433</v>
@@ -13791,7 +14014,7 @@
         <v>452</v>
       </c>
       <c r="AO16" s="23" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="AP16" s="4" t="s">
         <v>453</v>
@@ -13806,10 +14029,10 @@
         <v>454</v>
       </c>
       <c r="AT16" s="23" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="AU16" s="23" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="AV16" s="4" t="s">
         <v>455</v>
@@ -13821,10 +14044,10 @@
         <v>456</v>
       </c>
       <c r="AY16" s="23" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="AZ16" s="23" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="BA16" s="4" t="s">
         <v>457</v>
@@ -13839,7 +14062,7 @@
         <v>458</v>
       </c>
       <c r="BE16" s="23" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="BF16" s="4" t="s">
         <v>938</v>
@@ -13851,7 +14074,7 @@
         <v>459</v>
       </c>
       <c r="BI16" s="23" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="BJ16" s="4" t="s">
         <v>968</v>
@@ -13901,20 +14124,23 @@
       <c r="BY16" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="BZ16" s="14" t="s">
+      <c r="BZ16" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="CA16" s="14" t="s">
         <v>1291</v>
       </c>
-      <c r="CA16" s="8" t="s">
+      <c r="CB16" s="8" t="s">
         <v>1304</v>
       </c>
-      <c r="CB16" t="s">
+      <c r="CC16" t="s">
         <v>303</v>
       </c>
-      <c r="CC16" t="s">
+      <c r="CD16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:81">
+    <row r="17" spans="1:82">
       <c r="A17">
         <v>3</v>
       </c>
@@ -13951,17 +14177,17 @@
       <c r="L17" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="M17" s="23" t="s">
-        <v>1653</v>
+      <c r="M17" s="26" t="s">
+        <v>1648</v>
       </c>
       <c r="N17" s="23" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>1591</v>
-      </c>
-      <c r="P17" t="s">
-        <v>1671</v>
+        <v>1587</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>1666</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>1240</v>
@@ -13976,10 +14202,10 @@
         <v>310</v>
       </c>
       <c r="U17" s="23" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="V17" s="23" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="W17" s="4" t="s">
         <v>311</v>
@@ -13996,11 +14222,11 @@
       <c r="AA17" s="18" t="s">
         <v>1396</v>
       </c>
-      <c r="AB17" s="18" t="s">
-        <v>1603</v>
+      <c r="AB17" s="1" t="s">
+        <v>1708</v>
       </c>
       <c r="AC17" s="18" t="s">
-        <v>1411</v>
+        <v>1598</v>
       </c>
       <c r="AD17" s="2" t="s">
         <v>314</v>
@@ -14018,7 +14244,7 @@
         <v>468</v>
       </c>
       <c r="AJ17" s="23" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="AK17" s="18" t="s">
         <v>1434</v>
@@ -14033,7 +14259,7 @@
         <v>470</v>
       </c>
       <c r="AO17" s="23" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="AP17" s="4" t="s">
         <v>471</v>
@@ -14048,10 +14274,10 @@
         <v>472</v>
       </c>
       <c r="AT17" s="23" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="AU17" s="23" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="AV17" s="4" t="s">
         <v>473</v>
@@ -14063,10 +14289,10 @@
         <v>474</v>
       </c>
       <c r="AY17" s="23" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="AZ17" s="23" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="BA17" s="4" t="s">
         <v>475</v>
@@ -14081,7 +14307,7 @@
         <v>476</v>
       </c>
       <c r="BE17" s="23" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="BF17" s="4" t="s">
         <v>939</v>
@@ -14093,7 +14319,7 @@
         <v>477</v>
       </c>
       <c r="BI17" s="23" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="BJ17" s="4" t="s">
         <v>969</v>
@@ -14143,20 +14369,23 @@
       <c r="BY17" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="BZ17" s="14" t="s">
+      <c r="BZ17" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="CA17" s="14" t="s">
         <v>1292</v>
       </c>
-      <c r="CA17" s="8" t="s">
+      <c r="CB17" s="8" t="s">
         <v>1305</v>
       </c>
-      <c r="CB17" t="s">
+      <c r="CC17" t="s">
         <v>340</v>
       </c>
-      <c r="CC17" t="s">
+      <c r="CD17" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:81">
+    <row r="18" spans="1:82">
       <c r="A18">
         <v>5</v>
       </c>
@@ -14193,17 +14422,17 @@
       <c r="L18" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="M18" s="22" t="s">
-        <v>1655</v>
+      <c r="M18" s="25" t="s">
+        <v>1650</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>1639</v>
-      </c>
-      <c r="P18" t="s">
-        <v>1673</v>
+        <v>1634</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>1668</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>1244</v>
@@ -14218,10 +14447,10 @@
         <v>494</v>
       </c>
       <c r="U18" s="22" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="V18" s="22" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="W18" s="4" t="s">
         <v>495</v>
@@ -14235,8 +14464,15 @@
       <c r="Z18" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="AA18"/>
-      <c r="AB18"/>
+      <c r="AA18" s="18" t="s">
+        <v>1683</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="AC18" s="18" t="s">
+        <v>1684</v>
+      </c>
       <c r="AD18" s="2" t="s">
         <v>498</v>
       </c>
@@ -14253,7 +14489,7 @@
         <v>501</v>
       </c>
       <c r="AJ18" s="22" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="AL18" s="4" t="s">
         <v>502</v>
@@ -14265,7 +14501,7 @@
         <v>503</v>
       </c>
       <c r="AO18" s="22" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="AP18" s="4" t="s">
         <v>504</v>
@@ -14280,10 +14516,10 @@
         <v>506</v>
       </c>
       <c r="AT18" s="22" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="AU18" s="22" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="AV18" s="4" t="s">
         <v>507</v>
@@ -14295,10 +14531,10 @@
         <v>508</v>
       </c>
       <c r="AY18" s="22" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="AZ18" s="22" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="BA18" s="4" t="s">
         <v>509</v>
@@ -14313,7 +14549,7 @@
         <v>511</v>
       </c>
       <c r="BE18" s="22" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="BF18" s="4" t="s">
         <v>940</v>
@@ -14325,7 +14561,7 @@
         <v>512</v>
       </c>
       <c r="BI18" s="22" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="BJ18" s="4" t="s">
         <v>970</v>
@@ -14369,23 +14605,29 @@
       <c r="BW18" t="s">
         <v>524</v>
       </c>
+      <c r="BX18" s="18" t="s">
+        <v>1716</v>
+      </c>
       <c r="BY18" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="BZ18" s="14" t="s">
+      <c r="BZ18" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="CA18" s="14" t="s">
         <v>1293</v>
       </c>
-      <c r="CA18" s="8" t="s">
+      <c r="CB18" s="8" t="s">
         <v>1306</v>
       </c>
-      <c r="CB18" t="s">
+      <c r="CC18" t="s">
         <v>525</v>
       </c>
-      <c r="CC18" t="s">
+      <c r="CD18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:81">
+    <row r="19" spans="1:82">
       <c r="A19">
         <v>5</v>
       </c>
@@ -14422,17 +14664,17 @@
       <c r="L19" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="M19" s="22" t="s">
-        <v>1656</v>
+      <c r="M19" s="25" t="s">
+        <v>1651</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>1640</v>
-      </c>
-      <c r="P19" t="s">
-        <v>1674</v>
+        <v>1635</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>1669</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>1257</v>
@@ -14447,10 +14689,10 @@
         <v>531</v>
       </c>
       <c r="U19" s="22" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="V19" s="22" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="W19" s="4" t="s">
         <v>532</v>
@@ -14464,8 +14706,15 @@
       <c r="Z19" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="AA19"/>
-      <c r="AB19"/>
+      <c r="AA19" s="18" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="AC19" s="18" t="s">
+        <v>1685</v>
+      </c>
       <c r="AD19" s="2" t="s">
         <v>535</v>
       </c>
@@ -14482,7 +14731,7 @@
         <v>538</v>
       </c>
       <c r="AJ19" s="22" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="AL19" s="4" t="s">
         <v>539</v>
@@ -14494,7 +14743,7 @@
         <v>540</v>
       </c>
       <c r="AO19" s="22" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="AP19" s="4" t="s">
         <v>541</v>
@@ -14509,10 +14758,10 @@
         <v>543</v>
       </c>
       <c r="AT19" s="22" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="AU19" s="22" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="AV19" s="4" t="s">
         <v>544</v>
@@ -14524,10 +14773,10 @@
         <v>545</v>
       </c>
       <c r="AY19" s="22" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="AZ19" s="22" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="BA19" s="4" t="s">
         <v>546</v>
@@ -14542,7 +14791,7 @@
         <v>548</v>
       </c>
       <c r="BE19" s="22" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="BF19" s="4" t="s">
         <v>941</v>
@@ -14554,7 +14803,7 @@
         <v>549</v>
       </c>
       <c r="BI19" s="22" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="BJ19" s="4" t="s">
         <v>971</v>
@@ -14598,23 +14847,29 @@
       <c r="BW19" t="s">
         <v>561</v>
       </c>
+      <c r="BX19" s="18" t="s">
+        <v>1715</v>
+      </c>
       <c r="BY19" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="BZ19" s="14" t="s">
+      <c r="BZ19" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="CA19" s="14" t="s">
         <v>1294</v>
       </c>
-      <c r="CA19" s="8" t="s">
+      <c r="CB19" s="8" t="s">
         <v>1307</v>
       </c>
-      <c r="CB19" t="s">
+      <c r="CC19" t="s">
         <v>562</v>
       </c>
-      <c r="CC19" t="s">
+      <c r="CD19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:81">
+    <row r="20" spans="1:82">
       <c r="A20">
         <v>5</v>
       </c>
@@ -14651,17 +14906,17 @@
       <c r="L20" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="M20" s="22" t="s">
-        <v>1657</v>
+      <c r="M20" s="25" t="s">
+        <v>1652</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>1641</v>
-      </c>
-      <c r="P20" t="s">
-        <v>1675</v>
+        <v>1636</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>1670</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>1242</v>
@@ -14676,10 +14931,10 @@
         <v>568</v>
       </c>
       <c r="U20" s="22" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="V20" s="22" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="W20" s="4" t="s">
         <v>569</v>
@@ -14693,8 +14948,15 @@
       <c r="Z20" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="AA20"/>
-      <c r="AB20"/>
+      <c r="AA20" s="18" t="s">
+        <v>1681</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="AC20" s="18" t="s">
+        <v>1686</v>
+      </c>
       <c r="AD20" s="2" t="s">
         <v>572</v>
       </c>
@@ -14711,7 +14973,7 @@
         <v>575</v>
       </c>
       <c r="AJ20" s="22" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="AL20" s="4" t="s">
         <v>576</v>
@@ -14723,7 +14985,7 @@
         <v>577</v>
       </c>
       <c r="AO20" s="22" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="AP20" s="4" t="s">
         <v>578</v>
@@ -14738,10 +15000,10 @@
         <v>580</v>
       </c>
       <c r="AT20" s="22" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="AU20" s="22" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="AV20" s="4" t="s">
         <v>581</v>
@@ -14753,10 +15015,10 @@
         <v>582</v>
       </c>
       <c r="AY20" s="22" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="AZ20" s="22" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="BA20" s="4" t="s">
         <v>583</v>
@@ -14771,7 +15033,7 @@
         <v>585</v>
       </c>
       <c r="BE20" s="22" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="BF20" s="4" t="s">
         <v>942</v>
@@ -14783,7 +15045,7 @@
         <v>586</v>
       </c>
       <c r="BI20" s="22" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="BJ20" s="4" t="s">
         <v>972</v>
@@ -14827,23 +15089,29 @@
       <c r="BW20" t="s">
         <v>598</v>
       </c>
+      <c r="BX20" s="18" t="s">
+        <v>1714</v>
+      </c>
       <c r="BY20" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="BZ20" s="14" t="s">
+      <c r="BZ20" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="CA20" s="14" t="s">
         <v>1295</v>
       </c>
-      <c r="CA20" s="8" t="s">
+      <c r="CB20" s="8" t="s">
         <v>1308</v>
       </c>
-      <c r="CB20" t="s">
+      <c r="CC20" t="s">
         <v>599</v>
       </c>
-      <c r="CC20" t="s">
+      <c r="CD20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:81">
+    <row r="21" spans="1:82">
       <c r="A21">
         <v>5</v>
       </c>
@@ -14880,17 +15148,17 @@
       <c r="L21" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="M21" s="22" t="s">
-        <v>1658</v>
+      <c r="M21" s="25" t="s">
+        <v>1653</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>1642</v>
-      </c>
-      <c r="P21" t="s">
-        <v>1676</v>
+        <v>1637</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>1671</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>1243</v>
@@ -14905,10 +15173,10 @@
         <v>605</v>
       </c>
       <c r="U21" s="22" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="V21" s="22" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="W21" s="8" t="s">
         <v>606</v>
@@ -14922,8 +15190,15 @@
       <c r="Z21" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="AA21"/>
-      <c r="AB21"/>
+      <c r="AA21" s="18" t="s">
+        <v>1680</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="AC21" s="18" t="s">
+        <v>1687</v>
+      </c>
       <c r="AD21" s="2" t="s">
         <v>609</v>
       </c>
@@ -14940,7 +15215,7 @@
         <v>612</v>
       </c>
       <c r="AJ21" s="22" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="AL21" s="8" t="s">
         <v>613</v>
@@ -14952,7 +15227,7 @@
         <v>614</v>
       </c>
       <c r="AO21" s="22" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="AP21" s="4" t="s">
         <v>615</v>
@@ -14967,10 +15242,10 @@
         <v>617</v>
       </c>
       <c r="AT21" s="22" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="AU21" s="22" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="AV21" s="8" t="s">
         <v>618</v>
@@ -14982,10 +15257,10 @@
         <v>619</v>
       </c>
       <c r="AY21" s="22" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="AZ21" s="22" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="BA21" s="8" t="s">
         <v>620</v>
@@ -15000,7 +15275,7 @@
         <v>622</v>
       </c>
       <c r="BE21" s="22" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="BF21" s="8" t="s">
         <v>943</v>
@@ -15012,7 +15287,7 @@
         <v>623</v>
       </c>
       <c r="BI21" s="22" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="BJ21" s="8" t="s">
         <v>973</v>
@@ -15056,23 +15331,29 @@
       <c r="BW21" t="s">
         <v>635</v>
       </c>
+      <c r="BX21" s="18" t="s">
+        <v>1713</v>
+      </c>
       <c r="BY21" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="BZ21" s="14" t="s">
+      <c r="BZ21" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="CA21" s="14" t="s">
         <v>1296</v>
       </c>
-      <c r="CA21" s="8" t="s">
+      <c r="CB21" s="8" t="s">
         <v>1309</v>
       </c>
-      <c r="CB21" t="s">
+      <c r="CC21" t="s">
         <v>636</v>
       </c>
-      <c r="CC21" t="s">
+      <c r="CD21" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:81">
+    <row r="22" spans="1:82">
       <c r="A22">
         <v>5</v>
       </c>
@@ -15109,17 +15390,17 @@
       <c r="L22" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="M22" s="22" t="s">
-        <v>1659</v>
+      <c r="M22" s="25" t="s">
+        <v>1654</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>1643</v>
-      </c>
-      <c r="P22" t="s">
-        <v>1677</v>
+        <v>1638</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>1672</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>1245</v>
@@ -15134,10 +15415,10 @@
         <v>642</v>
       </c>
       <c r="U22" s="22" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="V22" s="22" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="W22" s="8" t="s">
         <v>643</v>
@@ -15151,8 +15432,15 @@
       <c r="Z22" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AA22"/>
-      <c r="AB22"/>
+      <c r="AA22" s="18" t="s">
+        <v>1679</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="AC22" s="18" t="s">
+        <v>1688</v>
+      </c>
       <c r="AD22" s="2" t="s">
         <v>646</v>
       </c>
@@ -15169,7 +15457,7 @@
         <v>649</v>
       </c>
       <c r="AJ22" s="22" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="AL22" s="8" t="s">
         <v>650</v>
@@ -15181,7 +15469,7 @@
         <v>651</v>
       </c>
       <c r="AO22" s="22" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="AP22" s="4" t="s">
         <v>652</v>
@@ -15196,10 +15484,10 @@
         <v>654</v>
       </c>
       <c r="AT22" s="22" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="AU22" s="22" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="AV22" s="8" t="s">
         <v>655</v>
@@ -15211,10 +15499,10 @@
         <v>656</v>
       </c>
       <c r="AY22" s="22" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="AZ22" s="22" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="BA22" s="8" t="s">
         <v>657</v>
@@ -15229,7 +15517,7 @@
         <v>659</v>
       </c>
       <c r="BE22" s="22" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="BF22" s="8" t="s">
         <v>944</v>
@@ -15241,7 +15529,7 @@
         <v>660</v>
       </c>
       <c r="BI22" s="22" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="BJ22" s="8" t="s">
         <v>974</v>
@@ -15285,23 +15573,29 @@
       <c r="BW22" t="s">
         <v>672</v>
       </c>
+      <c r="BX22" s="18" t="s">
+        <v>1712</v>
+      </c>
       <c r="BY22" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="BZ22" s="14" t="s">
+      <c r="BZ22" s="3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="CA22" s="14" t="s">
         <v>1297</v>
       </c>
-      <c r="CA22" s="8" t="s">
+      <c r="CB22" s="8" t="s">
         <v>1310</v>
       </c>
-      <c r="CB22" t="s">
+      <c r="CC22" t="s">
         <v>673</v>
       </c>
-      <c r="CC22" t="s">
+      <c r="CD22" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:81">
+    <row r="23" spans="1:82">
       <c r="A23">
         <v>5</v>
       </c>
@@ -15338,17 +15632,17 @@
       <c r="L23" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="M23" s="22" t="s">
-        <v>1660</v>
+      <c r="M23" s="25" t="s">
+        <v>1655</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>1644</v>
-      </c>
-      <c r="P23" t="s">
-        <v>1678</v>
+        <v>1639</v>
+      </c>
+      <c r="P23" s="25" t="s">
+        <v>1673</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>1244</v>
@@ -15363,10 +15657,10 @@
         <v>679</v>
       </c>
       <c r="U23" s="22" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="V23" s="22" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="W23" s="8" t="s">
         <v>680</v>
@@ -15380,8 +15674,15 @@
       <c r="Z23" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="AA23"/>
-      <c r="AB23"/>
+      <c r="AA23" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AC23" s="18" t="s">
+        <v>1689</v>
+      </c>
       <c r="AD23" s="2" t="s">
         <v>683</v>
       </c>
@@ -15398,7 +15699,7 @@
         <v>686</v>
       </c>
       <c r="AJ23" s="22" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="AL23" s="8" t="s">
         <v>687</v>
@@ -15410,7 +15711,7 @@
         <v>688</v>
       </c>
       <c r="AO23" s="22" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="AP23" s="4" t="s">
         <v>689</v>
@@ -15425,10 +15726,10 @@
         <v>691</v>
       </c>
       <c r="AT23" s="22" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="AU23" s="22" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="AV23" s="8" t="s">
         <v>692</v>
@@ -15440,10 +15741,10 @@
         <v>693</v>
       </c>
       <c r="AY23" s="22" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="AZ23" s="22" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="BA23" s="8" t="s">
         <v>694</v>
@@ -15458,7 +15759,7 @@
         <v>696</v>
       </c>
       <c r="BE23" s="22" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="BF23" s="8" t="s">
         <v>975</v>
@@ -15470,7 +15771,7 @@
         <v>697</v>
       </c>
       <c r="BI23" s="22" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="BJ23" s="8" t="s">
         <v>976</v>
@@ -15514,23 +15815,29 @@
       <c r="BW23" t="s">
         <v>709</v>
       </c>
+      <c r="BX23" s="18" t="s">
+        <v>1711</v>
+      </c>
       <c r="BY23" s="3" t="s">
         <v>1278</v>
       </c>
-      <c r="BZ23" s="14" t="s">
+      <c r="BZ23" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="CA23" s="14" t="s">
         <v>1298</v>
       </c>
-      <c r="CA23" s="8" t="s">
+      <c r="CB23" s="8" t="s">
         <v>1311</v>
       </c>
-      <c r="CB23" t="s">
+      <c r="CC23" t="s">
         <v>710</v>
       </c>
-      <c r="CC23" t="s">
+      <c r="CD23" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:81">
+    <row r="24" spans="1:82">
       <c r="A24">
         <v>5</v>
       </c>
@@ -15567,17 +15874,17 @@
       <c r="L24" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="M24" s="22" t="s">
-        <v>1661</v>
+      <c r="M24" s="25" t="s">
+        <v>1656</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>1645</v>
-      </c>
-      <c r="P24" t="s">
-        <v>1679</v>
+        <v>1640</v>
+      </c>
+      <c r="P24" s="25" t="s">
+        <v>1674</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>1241</v>
@@ -15592,10 +15899,10 @@
         <v>716</v>
       </c>
       <c r="U24" s="22" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="V24" s="22" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="W24" s="8" t="s">
         <v>717</v>
@@ -15609,6 +15916,15 @@
       <c r="Z24" s="1" t="s">
         <v>719</v>
       </c>
+      <c r="AA24" s="18" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AC24" s="18" t="s">
+        <v>1690</v>
+      </c>
       <c r="AD24" s="2" t="s">
         <v>720</v>
       </c>
@@ -15625,7 +15941,7 @@
         <v>723</v>
       </c>
       <c r="AJ24" s="22" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="AL24" s="8" t="s">
         <v>724</v>
@@ -15637,7 +15953,7 @@
         <v>725</v>
       </c>
       <c r="AO24" s="22" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="AP24" s="4" t="s">
         <v>726</v>
@@ -15652,10 +15968,10 @@
         <v>728</v>
       </c>
       <c r="AT24" s="22" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="AU24" s="22" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="AV24" s="8" t="s">
         <v>729</v>
@@ -15667,10 +15983,10 @@
         <v>730</v>
       </c>
       <c r="AY24" s="22" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="AZ24" s="22" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="BA24" s="8" t="s">
         <v>731</v>
@@ -15685,7 +16001,7 @@
         <v>733</v>
       </c>
       <c r="BE24" s="22" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="BF24" s="8" t="s">
         <v>945</v>
@@ -15697,7 +16013,7 @@
         <v>734</v>
       </c>
       <c r="BI24" s="22" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="BJ24" s="8" t="s">
         <v>977</v>
@@ -15741,23 +16057,29 @@
       <c r="BW24" t="s">
         <v>746</v>
       </c>
+      <c r="BX24" s="18" t="s">
+        <v>1710</v>
+      </c>
       <c r="BY24" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="BZ24" s="14" t="s">
+      <c r="BZ24" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="CA24" s="14" t="s">
         <v>1299</v>
       </c>
-      <c r="CA24" s="8" t="s">
+      <c r="CB24" s="8" t="s">
         <v>1312</v>
       </c>
-      <c r="CB24" t="s">
+      <c r="CC24" t="s">
         <v>747</v>
       </c>
-      <c r="CC24" t="s">
+      <c r="CD24" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:81">
+    <row r="25" spans="1:82">
       <c r="A25">
         <v>5</v>
       </c>
@@ -15794,17 +16116,17 @@
       <c r="L25" s="8" t="s">
         <v>903</v>
       </c>
-      <c r="M25" s="22" t="s">
-        <v>1662</v>
+      <c r="M25" s="25" t="s">
+        <v>1657</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>1646</v>
-      </c>
-      <c r="P25" t="s">
-        <v>1672</v>
+        <v>1641</v>
+      </c>
+      <c r="P25" s="25" t="s">
+        <v>1667</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>1246</v>
@@ -15819,10 +16141,10 @@
         <v>752</v>
       </c>
       <c r="U25" s="22" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="W25" s="8" t="s">
         <v>904</v>
@@ -15836,6 +16158,15 @@
       <c r="Z25" s="1" t="s">
         <v>754</v>
       </c>
+      <c r="AA25" s="18" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AC25" s="18" t="s">
+        <v>1691</v>
+      </c>
       <c r="AD25" s="2" t="s">
         <v>905</v>
       </c>
@@ -15852,7 +16183,7 @@
         <v>757</v>
       </c>
       <c r="AJ25" s="22" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="AL25" s="8" t="s">
         <v>1226</v>
@@ -15864,7 +16195,7 @@
         <v>758</v>
       </c>
       <c r="AO25" s="22" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="AP25" s="4" t="s">
         <v>1225</v>
@@ -15879,10 +16210,10 @@
         <v>760</v>
       </c>
       <c r="AT25" s="22" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="AU25" s="22" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="AV25" s="8" t="s">
         <v>1224</v>
@@ -15894,10 +16225,10 @@
         <v>761</v>
       </c>
       <c r="AY25" s="22" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="AZ25" s="22" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="BA25" s="8" t="s">
         <v>1223</v>
@@ -15912,7 +16243,7 @@
         <v>763</v>
       </c>
       <c r="BE25" s="22" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="BF25" s="8" t="s">
         <v>1222</v>
@@ -15924,7 +16255,7 @@
         <v>764</v>
       </c>
       <c r="BI25" s="22" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="BJ25" s="8" t="s">
         <v>1221</v>
@@ -15968,23 +16299,29 @@
       <c r="BW25" t="s">
         <v>776</v>
       </c>
+      <c r="BX25" s="18" t="s">
+        <v>1709</v>
+      </c>
       <c r="BY25" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="BZ25" s="14" t="s">
+      <c r="BZ25" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="CA25" s="14" t="s">
         <v>1300</v>
       </c>
-      <c r="CA25" s="8" t="s">
+      <c r="CB25" s="8" t="s">
         <v>1313</v>
       </c>
-      <c r="CB25" t="s">
+      <c r="CC25" t="s">
         <v>777</v>
       </c>
-      <c r="CC25" t="s">
+      <c r="CD25" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="1:81">
+    <row r="26" spans="1:82">
       <c r="A26">
         <v>6</v>
       </c>
@@ -16021,17 +16358,17 @@
       <c r="L26" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="M26" s="22" t="s">
-        <v>1655</v>
+      <c r="M26" s="25" t="s">
+        <v>1650</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>1639</v>
-      </c>
-      <c r="P26" t="s">
-        <v>1673</v>
+        <v>1634</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>1668</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>1244</v>
@@ -16046,10 +16383,10 @@
         <v>494</v>
       </c>
       <c r="U26" s="22" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="V26" s="22" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="W26" s="4" t="s">
         <v>495</v>
@@ -16063,6 +16400,15 @@
       <c r="Z26" s="1" t="s">
         <v>497</v>
       </c>
+      <c r="AA26" s="18" t="s">
+        <v>1683</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="AC26" s="18" t="s">
+        <v>1684</v>
+      </c>
       <c r="AD26" s="2" t="s">
         <v>498</v>
       </c>
@@ -16079,7 +16425,7 @@
         <v>779</v>
       </c>
       <c r="AJ26" s="22" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="AL26" s="4" t="s">
         <v>780</v>
@@ -16091,7 +16437,7 @@
         <v>781</v>
       </c>
       <c r="AO26" s="22" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="AP26" s="4" t="s">
         <v>782</v>
@@ -16106,10 +16452,10 @@
         <v>783</v>
       </c>
       <c r="AT26" s="22" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="AU26" s="22" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="AV26" s="4" t="s">
         <v>784</v>
@@ -16121,10 +16467,10 @@
         <v>785</v>
       </c>
       <c r="AY26" s="22" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="AZ26" s="22" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="BA26" s="4" t="s">
         <v>786</v>
@@ -16139,7 +16485,7 @@
         <v>787</v>
       </c>
       <c r="BE26" s="22" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="BF26" s="4" t="s">
         <v>946</v>
@@ -16151,7 +16497,7 @@
         <v>788</v>
       </c>
       <c r="BI26" s="22" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="BJ26" s="4" t="s">
         <v>978</v>
@@ -16195,23 +16541,29 @@
       <c r="BW26" t="s">
         <v>524</v>
       </c>
+      <c r="BX26" s="18" t="s">
+        <v>1716</v>
+      </c>
       <c r="BY26" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="BZ26" s="14" t="s">
+      <c r="BZ26" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="CA26" s="14" t="s">
         <v>1293</v>
       </c>
-      <c r="CA26" s="8" t="s">
+      <c r="CB26" s="8" t="s">
         <v>1306</v>
       </c>
-      <c r="CB26" t="s">
+      <c r="CC26" t="s">
         <v>525</v>
       </c>
-      <c r="CC26" t="s">
+      <c r="CD26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:81">
+    <row r="27" spans="1:82">
       <c r="A27">
         <v>6</v>
       </c>
@@ -16248,17 +16600,17 @@
       <c r="L27" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="M27" s="22" t="s">
-        <v>1656</v>
+      <c r="M27" s="25" t="s">
+        <v>1651</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>1640</v>
-      </c>
-      <c r="P27" t="s">
-        <v>1674</v>
+        <v>1635</v>
+      </c>
+      <c r="P27" s="25" t="s">
+        <v>1669</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>1257</v>
@@ -16273,10 +16625,10 @@
         <v>531</v>
       </c>
       <c r="U27" s="22" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="V27" s="22" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="W27" s="4" t="s">
         <v>532</v>
@@ -16290,6 +16642,15 @@
       <c r="Z27" s="1" t="s">
         <v>534</v>
       </c>
+      <c r="AA27" s="18" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="AC27" s="18" t="s">
+        <v>1685</v>
+      </c>
       <c r="AD27" s="2" t="s">
         <v>535</v>
       </c>
@@ -16306,7 +16667,7 @@
         <v>797</v>
       </c>
       <c r="AJ27" s="22" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="AL27" s="4" t="s">
         <v>798</v>
@@ -16318,7 +16679,7 @@
         <v>799</v>
       </c>
       <c r="AO27" s="22" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="AP27" s="4" t="s">
         <v>800</v>
@@ -16333,10 +16694,10 @@
         <v>801</v>
       </c>
       <c r="AT27" s="22" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="AU27" s="22" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="AV27" s="4" t="s">
         <v>802</v>
@@ -16348,10 +16709,10 @@
         <v>803</v>
       </c>
       <c r="AY27" s="22" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="AZ27" s="22" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="BA27" s="16" t="s">
         <v>804</v>
@@ -16366,7 +16727,7 @@
         <v>805</v>
       </c>
       <c r="BE27" s="22" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="BF27" s="4" t="s">
         <v>947</v>
@@ -16378,7 +16739,7 @@
         <v>806</v>
       </c>
       <c r="BI27" s="22" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="BJ27" s="4" t="s">
         <v>979</v>
@@ -16422,23 +16783,29 @@
       <c r="BW27" t="s">
         <v>561</v>
       </c>
+      <c r="BX27" s="18" t="s">
+        <v>1715</v>
+      </c>
       <c r="BY27" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="BZ27" s="14" t="s">
+      <c r="BZ27" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="CA27" s="14" t="s">
         <v>1294</v>
       </c>
-      <c r="CA27" s="8" t="s">
+      <c r="CB27" s="8" t="s">
         <v>1307</v>
       </c>
-      <c r="CB27" t="s">
+      <c r="CC27" t="s">
         <v>562</v>
       </c>
-      <c r="CC27" t="s">
+      <c r="CD27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:81">
+    <row r="28" spans="1:82">
       <c r="A28">
         <v>6</v>
       </c>
@@ -16475,17 +16842,17 @@
       <c r="L28" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="M28" s="22" t="s">
-        <v>1657</v>
+      <c r="M28" s="25" t="s">
+        <v>1652</v>
       </c>
       <c r="N28" s="22" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>1641</v>
-      </c>
-      <c r="P28" t="s">
-        <v>1675</v>
+        <v>1636</v>
+      </c>
+      <c r="P28" s="25" t="s">
+        <v>1670</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>1242</v>
@@ -16500,10 +16867,10 @@
         <v>568</v>
       </c>
       <c r="U28" s="22" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="V28" s="22" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="W28" s="4" t="s">
         <v>569</v>
@@ -16517,6 +16884,15 @@
       <c r="Z28" s="1" t="s">
         <v>571</v>
       </c>
+      <c r="AA28" s="18" t="s">
+        <v>1681</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="AC28" s="18" t="s">
+        <v>1686</v>
+      </c>
       <c r="AD28" s="2" t="s">
         <v>572</v>
       </c>
@@ -16533,7 +16909,7 @@
         <v>815</v>
       </c>
       <c r="AJ28" s="22" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="AL28" s="4" t="s">
         <v>816</v>
@@ -16545,7 +16921,7 @@
         <v>817</v>
       </c>
       <c r="AO28" s="22" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="AP28" s="4" t="s">
         <v>818</v>
@@ -16560,10 +16936,10 @@
         <v>819</v>
       </c>
       <c r="AT28" s="22" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="AU28" s="22" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="AV28" s="4" t="s">
         <v>820</v>
@@ -16575,10 +16951,10 @@
         <v>821</v>
       </c>
       <c r="AY28" s="22" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="AZ28" s="22" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="BA28" s="16" t="s">
         <v>822</v>
@@ -16593,7 +16969,7 @@
         <v>823</v>
       </c>
       <c r="BE28" s="22" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="BF28" s="4" t="s">
         <v>948</v>
@@ -16605,7 +16981,7 @@
         <v>824</v>
       </c>
       <c r="BI28" s="22" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="BJ28" s="4" t="s">
         <v>980</v>
@@ -16649,23 +17025,29 @@
       <c r="BW28" t="s">
         <v>598</v>
       </c>
+      <c r="BX28" s="18" t="s">
+        <v>1714</v>
+      </c>
       <c r="BY28" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="BZ28" s="14" t="s">
+      <c r="BZ28" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="CA28" s="14" t="s">
         <v>1295</v>
       </c>
-      <c r="CA28" s="8" t="s">
+      <c r="CB28" s="8" t="s">
         <v>1308</v>
       </c>
-      <c r="CB28" t="s">
+      <c r="CC28" t="s">
         <v>599</v>
       </c>
-      <c r="CC28" t="s">
+      <c r="CD28" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:81">
+    <row r="29" spans="1:82">
       <c r="A29">
         <v>6</v>
       </c>
@@ -16702,17 +17084,17 @@
       <c r="L29" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="M29" s="22" t="s">
-        <v>1658</v>
+      <c r="M29" s="25" t="s">
+        <v>1653</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>1642</v>
-      </c>
-      <c r="P29" t="s">
-        <v>1676</v>
+        <v>1637</v>
+      </c>
+      <c r="P29" s="25" t="s">
+        <v>1671</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>1243</v>
@@ -16727,10 +17109,10 @@
         <v>605</v>
       </c>
       <c r="U29" s="22" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="V29" s="22" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="W29" s="8" t="s">
         <v>606</v>
@@ -16744,6 +17126,15 @@
       <c r="Z29" s="1" t="s">
         <v>608</v>
       </c>
+      <c r="AA29" s="18" t="s">
+        <v>1680</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="AC29" s="18" t="s">
+        <v>1687</v>
+      </c>
       <c r="AD29" s="2" t="s">
         <v>609</v>
       </c>
@@ -16760,7 +17151,7 @@
         <v>833</v>
       </c>
       <c r="AJ29" s="22" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="AL29" s="8" t="s">
         <v>1314</v>
@@ -16772,7 +17163,7 @@
         <v>834</v>
       </c>
       <c r="AO29" s="22" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="AP29" s="4" t="s">
         <v>1315</v>
@@ -16787,10 +17178,10 @@
         <v>835</v>
       </c>
       <c r="AT29" s="22" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="AU29" s="22" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="AV29" s="8" t="s">
         <v>836</v>
@@ -16802,10 +17193,10 @@
         <v>837</v>
       </c>
       <c r="AY29" s="22" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="AZ29" s="22" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="BA29" s="13" t="s">
         <v>838</v>
@@ -16820,7 +17211,7 @@
         <v>839</v>
       </c>
       <c r="BE29" s="22" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="BF29" s="8" t="s">
         <v>949</v>
@@ -16832,7 +17223,7 @@
         <v>840</v>
       </c>
       <c r="BI29" s="22" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="BJ29" s="8" t="s">
         <v>981</v>
@@ -16876,23 +17267,29 @@
       <c r="BW29" t="s">
         <v>635</v>
       </c>
+      <c r="BX29" s="18" t="s">
+        <v>1713</v>
+      </c>
       <c r="BY29" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="BZ29" s="14" t="s">
+      <c r="BZ29" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="CA29" s="14" t="s">
         <v>1296</v>
       </c>
-      <c r="CA29" s="8" t="s">
+      <c r="CB29" s="8" t="s">
         <v>1309</v>
       </c>
-      <c r="CB29" t="s">
+      <c r="CC29" t="s">
         <v>636</v>
       </c>
-      <c r="CC29" t="s">
+      <c r="CD29" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:81">
+    <row r="30" spans="1:82">
       <c r="A30">
         <v>6</v>
       </c>
@@ -16929,17 +17326,17 @@
       <c r="L30" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="M30" s="22" t="s">
-        <v>1659</v>
+      <c r="M30" s="25" t="s">
+        <v>1654</v>
       </c>
       <c r="N30" s="22" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>1643</v>
-      </c>
-      <c r="P30" t="s">
-        <v>1677</v>
+        <v>1638</v>
+      </c>
+      <c r="P30" s="25" t="s">
+        <v>1672</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>1245</v>
@@ -16954,10 +17351,10 @@
         <v>642</v>
       </c>
       <c r="U30" s="22" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="V30" s="22" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="W30" s="8" t="s">
         <v>643</v>
@@ -16971,6 +17368,15 @@
       <c r="Z30" s="1" t="s">
         <v>645</v>
       </c>
+      <c r="AA30" s="18" t="s">
+        <v>1679</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="AC30" s="18" t="s">
+        <v>1688</v>
+      </c>
       <c r="AD30" s="2" t="s">
         <v>646</v>
       </c>
@@ -16987,7 +17393,7 @@
         <v>849</v>
       </c>
       <c r="AJ30" s="22" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="AL30" s="8" t="s">
         <v>850</v>
@@ -16999,7 +17405,7 @@
         <v>851</v>
       </c>
       <c r="AO30" s="22" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="AP30" s="4" t="s">
         <v>852</v>
@@ -17014,10 +17420,10 @@
         <v>853</v>
       </c>
       <c r="AT30" s="22" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="AU30" s="22" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="AV30" s="8" t="s">
         <v>854</v>
@@ -17029,10 +17435,10 @@
         <v>855</v>
       </c>
       <c r="AY30" s="22" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="AZ30" s="22" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="BA30" s="13" t="s">
         <v>856</v>
@@ -17047,7 +17453,7 @@
         <v>857</v>
       </c>
       <c r="BE30" s="22" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="BF30" s="8" t="s">
         <v>950</v>
@@ -17059,7 +17465,7 @@
         <v>858</v>
       </c>
       <c r="BI30" s="22" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="BJ30" s="8" t="s">
         <v>982</v>
@@ -17103,23 +17509,29 @@
       <c r="BW30" t="s">
         <v>672</v>
       </c>
+      <c r="BX30" s="18" t="s">
+        <v>1712</v>
+      </c>
       <c r="BY30" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="BZ30" s="14" t="s">
+      <c r="BZ30" s="3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="CA30" s="14" t="s">
         <v>1297</v>
       </c>
-      <c r="CA30" s="8" t="s">
+      <c r="CB30" s="8" t="s">
         <v>1310</v>
       </c>
-      <c r="CB30" t="s">
+      <c r="CC30" t="s">
         <v>673</v>
       </c>
-      <c r="CC30" t="s">
+      <c r="CD30" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:81">
+    <row r="31" spans="1:82">
       <c r="A31">
         <v>6</v>
       </c>
@@ -17156,17 +17568,17 @@
       <c r="L31" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="M31" s="22" t="s">
-        <v>1660</v>
+      <c r="M31" s="25" t="s">
+        <v>1655</v>
       </c>
       <c r="N31" s="22" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="O31" s="20" t="s">
-        <v>1644</v>
-      </c>
-      <c r="P31" t="s">
-        <v>1678</v>
+        <v>1639</v>
+      </c>
+      <c r="P31" s="25" t="s">
+        <v>1673</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>1244</v>
@@ -17181,10 +17593,10 @@
         <v>679</v>
       </c>
       <c r="U31" s="22" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="V31" s="22" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="W31" s="8" t="s">
         <v>680</v>
@@ -17198,6 +17610,15 @@
       <c r="Z31" s="1" t="s">
         <v>682</v>
       </c>
+      <c r="AA31" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AC31" s="18" t="s">
+        <v>1689</v>
+      </c>
       <c r="AD31" s="2" t="s">
         <v>683</v>
       </c>
@@ -17214,7 +17635,7 @@
         <v>867</v>
       </c>
       <c r="AJ31" s="22" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="AL31" s="8" t="s">
         <v>868</v>
@@ -17226,7 +17647,7 @@
         <v>869</v>
       </c>
       <c r="AO31" s="22" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="AP31" s="4" t="s">
         <v>870</v>
@@ -17241,10 +17662,10 @@
         <v>871</v>
       </c>
       <c r="AT31" s="22" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="AU31" s="22" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="AV31" s="8" t="s">
         <v>872</v>
@@ -17256,10 +17677,10 @@
         <v>873</v>
       </c>
       <c r="AY31" s="22" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="AZ31" s="22" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="BA31" s="13" t="s">
         <v>874</v>
@@ -17274,7 +17695,7 @@
         <v>875</v>
       </c>
       <c r="BE31" s="22" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="BF31" s="8" t="s">
         <v>951</v>
@@ -17286,7 +17707,7 @@
         <v>876</v>
       </c>
       <c r="BI31" s="22" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="BJ31" s="8" t="s">
         <v>983</v>
@@ -17330,23 +17751,29 @@
       <c r="BW31" t="s">
         <v>709</v>
       </c>
+      <c r="BX31" s="18" t="s">
+        <v>1711</v>
+      </c>
       <c r="BY31" s="3" t="s">
         <v>1278</v>
       </c>
-      <c r="BZ31" s="14" t="s">
+      <c r="BZ31" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="CA31" s="14" t="s">
         <v>1298</v>
       </c>
-      <c r="CA31" s="8" t="s">
+      <c r="CB31" s="8" t="s">
         <v>1311</v>
       </c>
-      <c r="CB31" t="s">
+      <c r="CC31" t="s">
         <v>710</v>
       </c>
-      <c r="CC31" t="s">
+      <c r="CD31" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:81">
+    <row r="32" spans="1:82">
       <c r="A32">
         <v>6</v>
       </c>
@@ -17383,17 +17810,17 @@
       <c r="L32" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="M32" s="22" t="s">
-        <v>1661</v>
+      <c r="M32" s="25" t="s">
+        <v>1656</v>
       </c>
       <c r="N32" s="22" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>1645</v>
-      </c>
-      <c r="P32" t="s">
-        <v>1679</v>
+        <v>1640</v>
+      </c>
+      <c r="P32" s="25" t="s">
+        <v>1674</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>1241</v>
@@ -17408,10 +17835,10 @@
         <v>716</v>
       </c>
       <c r="U32" s="22" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="V32" s="22" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="W32" s="8" t="s">
         <v>717</v>
@@ -17425,6 +17852,15 @@
       <c r="Z32" s="1" t="s">
         <v>719</v>
       </c>
+      <c r="AA32" s="18" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AC32" s="18" t="s">
+        <v>1690</v>
+      </c>
       <c r="AD32" s="2" t="s">
         <v>720</v>
       </c>
@@ -17441,7 +17877,7 @@
         <v>885</v>
       </c>
       <c r="AJ32" s="22" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="AL32" s="8" t="s">
         <v>886</v>
@@ -17453,7 +17889,7 @@
         <v>887</v>
       </c>
       <c r="AO32" s="22" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="AP32" s="4" t="s">
         <v>888</v>
@@ -17468,10 +17904,10 @@
         <v>889</v>
       </c>
       <c r="AT32" s="22" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="AU32" s="22" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="AV32" s="8" t="s">
         <v>890</v>
@@ -17483,10 +17919,10 @@
         <v>891</v>
       </c>
       <c r="AY32" s="22" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="AZ32" s="22" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="BA32" s="8" t="s">
         <v>892</v>
@@ -17501,7 +17937,7 @@
         <v>893</v>
       </c>
       <c r="BE32" s="22" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="BF32" s="8" t="s">
         <v>952</v>
@@ -17513,7 +17949,7 @@
         <v>894</v>
       </c>
       <c r="BI32" s="22" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="BJ32" s="8" t="s">
         <v>984</v>
@@ -17557,23 +17993,29 @@
       <c r="BW32" t="s">
         <v>746</v>
       </c>
+      <c r="BX32" s="18" t="s">
+        <v>1710</v>
+      </c>
       <c r="BY32" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="BZ32" s="14" t="s">
+      <c r="BZ32" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="CA32" s="14" t="s">
         <v>1299</v>
       </c>
-      <c r="CA32" s="8" t="s">
+      <c r="CB32" s="8" t="s">
         <v>1312</v>
       </c>
-      <c r="CB32" t="s">
+      <c r="CC32" t="s">
         <v>747</v>
       </c>
-      <c r="CC32" t="s">
+      <c r="CD32" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:81">
+    <row r="33" spans="1:82">
       <c r="A33">
         <v>6</v>
       </c>
@@ -17610,17 +18052,17 @@
       <c r="L33" s="8" t="s">
         <v>903</v>
       </c>
-      <c r="M33" s="22" t="s">
-        <v>1662</v>
+      <c r="M33" s="25" t="s">
+        <v>1657</v>
       </c>
       <c r="N33" s="22" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>1646</v>
-      </c>
-      <c r="P33" t="s">
-        <v>1672</v>
+        <v>1641</v>
+      </c>
+      <c r="P33" s="25" t="s">
+        <v>1667</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>1246</v>
@@ -17635,10 +18077,10 @@
         <v>752</v>
       </c>
       <c r="U33" s="22" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="V33" s="22" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="W33" s="8" t="s">
         <v>904</v>
@@ -17652,6 +18094,15 @@
       <c r="Z33" s="1" t="s">
         <v>754</v>
       </c>
+      <c r="AA33" s="18" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AC33" s="18" t="s">
+        <v>1691</v>
+      </c>
       <c r="AD33" s="2" t="s">
         <v>905</v>
       </c>
@@ -17668,7 +18119,7 @@
         <v>906</v>
       </c>
       <c r="AJ33" s="22" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="AL33" s="8" t="s">
         <v>907</v>
@@ -17680,7 +18131,7 @@
         <v>908</v>
       </c>
       <c r="AO33" s="22" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="AP33" s="4" t="s">
         <v>909</v>
@@ -17695,10 +18146,10 @@
         <v>910</v>
       </c>
       <c r="AT33" s="22" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="AU33" s="22" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="AV33" s="8" t="s">
         <v>911</v>
@@ -17710,10 +18161,10 @@
         <v>912</v>
       </c>
       <c r="AY33" s="22" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="AZ33" s="22" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="BA33" s="8" t="s">
         <v>913</v>
@@ -17728,7 +18179,7 @@
         <v>914</v>
       </c>
       <c r="BE33" s="22" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="BF33" s="8" t="s">
         <v>953</v>
@@ -17740,7 +18191,7 @@
         <v>915</v>
       </c>
       <c r="BI33" s="22" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="BJ33" s="8" t="s">
         <v>985</v>
@@ -17784,26 +18235,82 @@
       <c r="BW33" t="s">
         <v>776</v>
       </c>
+      <c r="BX33" s="18" t="s">
+        <v>1709</v>
+      </c>
       <c r="BY33" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="BZ33" s="14" t="s">
+      <c r="BZ33" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="CA33" s="14" t="s">
         <v>1300</v>
       </c>
-      <c r="CA33" s="8" t="s">
+      <c r="CB33" s="8" t="s">
         <v>1313</v>
       </c>
-      <c r="CB33" t="s">
+      <c r="CC33" t="s">
         <v>777</v>
       </c>
-      <c r="CC33" t="s">
+      <c r="CD33" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="35" spans="1:81">
+    <row r="34" spans="1:82">
+      <c r="AI34" s="22"/>
+      <c r="AJ34" s="18"/>
+      <c r="AK34"/>
+      <c r="AN34" s="22"/>
+      <c r="AO34"/>
+      <c r="AS34" s="22"/>
+      <c r="AT34" s="18"/>
+      <c r="AU34"/>
+      <c r="AX34" s="22"/>
+      <c r="AZ34"/>
+      <c r="BD34" s="18"/>
+      <c r="BE34"/>
+      <c r="BH34" s="22"/>
+      <c r="BI34"/>
+      <c r="BW34" s="18"/>
+    </row>
+    <row r="35" spans="1:82">
       <c r="N35" s="24"/>
+      <c r="AI35" s="22"/>
+      <c r="AJ35" s="18"/>
+      <c r="AK35"/>
+      <c r="AN35" s="22"/>
+      <c r="AO35"/>
+      <c r="AS35" s="22"/>
+      <c r="AT35" s="18"/>
+      <c r="AU35"/>
+      <c r="AX35" s="22"/>
+      <c r="AZ35"/>
+      <c r="BD35" s="18"/>
+      <c r="BE35"/>
+      <c r="BH35" s="22"/>
+      <c r="BI35"/>
+      <c r="BW35" s="18"/>
     </row>
-    <row r="37" spans="1:81">
+    <row r="36" spans="1:82">
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="18"/>
+      <c r="AK36"/>
+      <c r="AN36" s="22"/>
+      <c r="AO36"/>
+      <c r="AS36" s="22"/>
+      <c r="AT36" s="18"/>
+      <c r="AU36"/>
+      <c r="AX36" s="22"/>
+      <c r="AZ36"/>
+      <c r="BD36" s="18"/>
+      <c r="BE36"/>
+      <c r="BH36" s="22"/>
+      <c r="BI36"/>
+      <c r="BW36" s="18"/>
+      <c r="BX36"/>
+    </row>
+    <row r="37" spans="1:82">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="J37" t="s">
@@ -17815,8 +18322,24 @@
       <c r="L37" t="s">
         <v>1328</v>
       </c>
+      <c r="AI37" s="22"/>
+      <c r="AJ37" s="18"/>
+      <c r="AK37"/>
+      <c r="AN37" s="22"/>
+      <c r="AO37"/>
+      <c r="AS37" s="22"/>
+      <c r="AT37" s="18"/>
+      <c r="AU37"/>
+      <c r="AX37" s="22"/>
+      <c r="AZ37"/>
+      <c r="BD37" s="18"/>
+      <c r="BE37"/>
+      <c r="BH37" s="22"/>
+      <c r="BI37"/>
+      <c r="BW37" s="18"/>
+      <c r="BX37"/>
     </row>
-    <row r="38" spans="1:81">
+    <row r="38" spans="1:82">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="J38" t="s">
@@ -17828,8 +18351,24 @@
       <c r="L38" t="s">
         <v>1329</v>
       </c>
+      <c r="AI38" s="22"/>
+      <c r="AJ38" s="18"/>
+      <c r="AK38"/>
+      <c r="AN38" s="22"/>
+      <c r="AO38"/>
+      <c r="AS38" s="22"/>
+      <c r="AT38" s="18"/>
+      <c r="AU38"/>
+      <c r="AX38" s="22"/>
+      <c r="AZ38"/>
+      <c r="BD38" s="18"/>
+      <c r="BE38"/>
+      <c r="BH38" s="22"/>
+      <c r="BI38"/>
+      <c r="BW38" s="18"/>
+      <c r="BX38"/>
     </row>
-    <row r="39" spans="1:81">
+    <row r="39" spans="1:82">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="J39" t="s">
@@ -17841,8 +18380,24 @@
       <c r="L39" t="s">
         <v>1335</v>
       </c>
+      <c r="AI39" s="22"/>
+      <c r="AJ39" s="18"/>
+      <c r="AK39"/>
+      <c r="AN39" s="22"/>
+      <c r="AO39"/>
+      <c r="AS39" s="22"/>
+      <c r="AT39" s="18"/>
+      <c r="AU39"/>
+      <c r="AX39" s="22"/>
+      <c r="AZ39"/>
+      <c r="BD39" s="18"/>
+      <c r="BE39"/>
+      <c r="BH39" s="22"/>
+      <c r="BI39"/>
+      <c r="BW39" s="18"/>
+      <c r="BX39"/>
     </row>
-    <row r="40" spans="1:81">
+    <row r="40" spans="1:82">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="J40" t="s">
@@ -17854,8 +18409,24 @@
       <c r="L40" t="s">
         <v>1334</v>
       </c>
+      <c r="AI40" s="22"/>
+      <c r="AJ40" s="18"/>
+      <c r="AK40"/>
+      <c r="AN40" s="22"/>
+      <c r="AO40"/>
+      <c r="AS40" s="22"/>
+      <c r="AT40" s="18"/>
+      <c r="AU40"/>
+      <c r="AX40" s="22"/>
+      <c r="AZ40"/>
+      <c r="BD40" s="18"/>
+      <c r="BE40"/>
+      <c r="BH40" s="22"/>
+      <c r="BI40"/>
+      <c r="BW40" s="18"/>
+      <c r="BX40"/>
     </row>
-    <row r="41" spans="1:81">
+    <row r="41" spans="1:82">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="J41" t="s">
@@ -17867,8 +18438,24 @@
       <c r="L41" t="s">
         <v>1336</v>
       </c>
+      <c r="AI41" s="22"/>
+      <c r="AJ41" s="18"/>
+      <c r="AK41"/>
+      <c r="AN41" s="22"/>
+      <c r="AO41"/>
+      <c r="AS41" s="22"/>
+      <c r="AT41" s="18"/>
+      <c r="AU41"/>
+      <c r="AX41" s="22"/>
+      <c r="AZ41"/>
+      <c r="BD41" s="18"/>
+      <c r="BE41"/>
+      <c r="BH41" s="22"/>
+      <c r="BI41"/>
+      <c r="BW41" s="18"/>
+      <c r="BX41"/>
     </row>
-    <row r="42" spans="1:81">
+    <row r="42" spans="1:82">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="J42" t="s">
@@ -17880,16 +18467,32 @@
       <c r="L42" t="s">
         <v>1330</v>
       </c>
+      <c r="AI42" s="22"/>
+      <c r="AJ42" s="18"/>
+      <c r="AK42"/>
+      <c r="AN42" s="22"/>
+      <c r="AO42"/>
+      <c r="AS42" s="22"/>
+      <c r="AT42" s="18"/>
+      <c r="AU42"/>
+      <c r="AX42" s="22"/>
+      <c r="AZ42"/>
+      <c r="BD42" s="18"/>
+      <c r="BE42"/>
+      <c r="BH42" s="22"/>
+      <c r="BI42"/>
+      <c r="BW42" s="18"/>
+      <c r="BX42"/>
     </row>
-    <row r="43" spans="1:81">
+    <row r="43" spans="1:82">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
     </row>
-    <row r="44" spans="1:81">
+    <row r="44" spans="1:82">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
     </row>
-    <row r="45" spans="1:81">
+    <row r="45" spans="1:82">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="J45" t="s">
@@ -17902,7 +18505,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="46" spans="1:81">
+    <row r="46" spans="1:82">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="J46" t="s">
@@ -17915,7 +18518,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="47" spans="1:81">
+    <row r="47" spans="1:82">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="J47" t="s">
@@ -17928,7 +18531,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="48" spans="1:81">
+    <row r="48" spans="1:82">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="J48" t="s">
@@ -17993,74 +18596,74 @@
   <sheetData>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="B10" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="B11" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="B12" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="B13" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="B14" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="B15" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="B16" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="B17" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="B18" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
     </row>
   </sheetData>
